--- a/data/titanium_base/titanium_base_unsh.xlsx
+++ b/data/titanium_base/titanium_base_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\titanium_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\titanium_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCEE4DA-6BEC-49EF-8927-D46A46D20471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CD546-21BE-4692-8B11-0F389B6C259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="286">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,772 +62,826 @@
     <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>38215В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
+    <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
   </si>
   <si>
-    <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
+    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
-    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
   </si>
   <si>
     <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
   </si>
   <si>
-    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200Bопт ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>38140С ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38202B ТО LM Patch (NT-Trading) Nobel Replace Select 4.3 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38205B ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38139С ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38103В ТО LM Patch (NT-Trading) Nobel Replace Select 4.3 bridge G/H=0.4 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38272уп2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38101В ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 bridge G/H=0.4 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38705уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38143В ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=1.1 H=4.5 с позиционером V.4 /</t>
+  </si>
+  <si>
+    <t>38256Вопт ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38782уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38272Bопт ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38146Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39008Н ТО LM TiN Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38144опт ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38715 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38706уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38260В1опт ТО LM Flat (2 лыски, с насечками) Dentis Regular full G/H=1.5 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
+  </si>
+  <si>
+    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38768уп2 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38715опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38200Bуп ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38146В1уп ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38238уп ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38245В ТО LM Flat (2 лыски, с насечками) Niko 3.5 full G/H=1 H=4.5 с позиционером V.6 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200Bопт ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39069уп2 ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236опт ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38144опт ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38782уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38248Вопт ТО LM Half (2 лыски) Mis SP (3.75/4.2) full G/H=0.6 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200B1опт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
+  </si>
+  <si>
+    <t>38200Bуп2 ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38256уп ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39046опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=2 H=5.3 с позиционером (арт. LL2-TSV320-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38716уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39009Н ТО LM TiN Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38790Нопт ТО LM TiN Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38130уп ТО LM Patch (NT-Trading) Astra Tech 4.5/5.0 bridge G/H=0.8 H=4 без позиционера V.2 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38769Н-2к ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38769Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38223В ТО LM Flat (2 лыски, с насечками) Astra Tech 4.5/5.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38767Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39048опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38146В1уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38243уп2 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38710Нопт ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
+  </si>
+  <si>
+    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39036Нопт ТО LM TiN Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38787 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760опт ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39069Нопт ТО LM TiN Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
-  </si>
-  <si>
-    <t>38705уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38144Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238оптV3 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38766Н ТО LM TiN Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
   </si>
   <si>
     <t>38731опт ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38148опт ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38705опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
-  </si>
-  <si>
-    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38706уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В1опт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38247В1опт ТО LM Half (2 лыски) Mis NP (3.3) full G/H=0.5 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38146Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205уп ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38243уп ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38218В ТО LM Patch (NT-Trading) Straumann SynOcta WN (6.5) full G/H=0.4 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38715уп2 ТО LM Bell (GEO) Nobel Active RP (4.5) full G/H=1.3 H=5.3 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
-  </si>
-  <si>
-    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234АН ТО LM TiN Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39097уп2 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38146В1опт ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38139Суп2 ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 / 2 ВИНТА,</t>
+    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
+  </si>
+  <si>
+    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38766Н-2к ТО LM TiN Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38279Вуп2 ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38143В2уп2 ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=1.1 H=4.5 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38150Вуп2 ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38768Нопт ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39065опт ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>39038уп2 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38768Н-2к ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+    <t>38725 ТО LM Bell (GEO) Nobel Replace Select 5.0 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPW-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39097 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38724 ТО LM Bell (GEO) Nobel Replace Select 4.3 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38787Нуп2 ТО LM TiN Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38103Вуп2 ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 bridge G/H=0.4 H=4.5 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39070Нопт ТО LM TiN Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38771 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38757опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43066Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38213опт ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38788опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) bridge G/H=1.3 H=4.55 без позиционера (арт. LL2-BLM-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38240В1опт ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38204BП1опт2 ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером ПОЛИР. V.6.P /</t>
+  </si>
+  <si>
+    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43044Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38247Вопт ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39059опт ТО LM Bell (GEO) Biomet 3i Certain 4.1 bridge G/H=0.75 H=5.25 без позиционера (арт. LL2-3iCR-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39031Нопт ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=5.2 с позиционером V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38239В1опт ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) WP (5.0) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38768опт ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39009опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39007опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38215опт ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38140С1уп2 ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 / 2 ВИНТА</t>
+  </si>
+  <si>
+    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38726СБопт ТО LM TiN Bell (GEO) Ankylos X full G/H=1.3 H=5.3 с позиционером (арт. LL-AKLL-T) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38144Суп2 ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39044опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38284ВПопт ТО LM Half (2 лыски) Adin WP (4.3/5.0) full G/H=1.5 H=4 с позиционером ПОЛИР. V.1.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>43039Вуп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=2.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>39070опт ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38782Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ А</t>
-  </si>
-  <si>
-    <t>38731уп2 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238оптV3 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38222опт ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 full G/H=0.8 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38768Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
-  </si>
-  <si>
-    <t>38143опт ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2/ С ОТКЛОНЕНИЕМ ПО ЛУА / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38760опт ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38237опт ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38768уп2 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43044Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
-  </si>
-  <si>
-    <t>38790опт ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43035Вопт ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38243Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38122СН ТО LM TiN Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38731Нопт2 ТО LM TiN Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1.A / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38705Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38282В2опт ТО LM Flat (2 лыски, с насечками) Adin NP (3.0) full G/H=1.5 H=4.5 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38715опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>39002Вопт ТО LM Flat (2 лыски, с насечками) MegaGen MiNi full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39002В1опт ТО LM Patch (NT-Trading) MegaGen MiNi full G/H=1 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38713Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38757опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38772опт ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240В1опт ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38787опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38250Вопт ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39069Нопт ТО LM TiN Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38788опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) bridge G/H=1.3 H=4.55 без позиционера (арт. LL2-BLM-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39043Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=6 с позиционером (арт. LL2-ASW20-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38205B2опт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38715Н ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / / БЕЗ</t>
-  </si>
-  <si>
-    <t>39080опт ТО LM Bell (GEO) Bego Semados 3.25/3.75 bridge G/H=0.7 H=4.6 без позиционера (арт. LL2-BEGO37-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39009опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39037Пуп2 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38201B1опт ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39007опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38716уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38751Нопт ТО LM TiN Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>43073В ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+    <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38143Вопт ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38122С1уп2 ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39046Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=2 H=5.3 с позиционером (арт. LL2-TSV320-H) V.1.A / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38205опт ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
-  </si>
-  <si>
-    <t>38203опт ТО LM Patch (NT-Trading) Nobel Replace Select 5.0 full G/H=0.4 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38234опт ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>39044Нопт ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38101Вуп2 ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 bridge G/H=0.4 H=4.5 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43046Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39040уп2 ТО LM Bell (GEO) Nobel Active RP (4.5) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38143В3опт ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=2.6 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38202B1опт ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38717опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / ВКЛ. 1 В</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38750опт ТО LM Bell (GEO) Xive 3.4 bridge G/H=1 H=5.3 без позиционера (арт. LL2-XVM-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38202опт ТО LM Patch (NT-Trading) Nobel Replace Select 4.3 full G/H=0.4 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38215опт ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38144Суп2 ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38726СБопт ТО LM TiN Bell (GEO) Ankylos X full G/H=1.3 H=5.3 с позиционером (арт. LL-AKLL-T) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38215Вопт ТО LM Half (2 лыски) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38133уп2 ТО LM Patch (NT-Trading) Xive 3.8 bridge G/H=0.4 H=4 без позиционера V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38425уп2 ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1364,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1325,8 +1379,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1386,15 +1439,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>11952</v>
+        <v>14267</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>7074</v>
+        <v>7903</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>4878</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1420,7 +1473,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="6">
@@ -1428,7 +1481,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1438,13 +1491,15 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6">
+        <v>132</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1454,13 +1509,13 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1470,15 +1525,15 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="6">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1488,15 +1543,13 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="6">
-        <v>20</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1506,15 +1559,15 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1524,13 +1577,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>400</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1540,15 +1595,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="6">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1558,15 +1613,13 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="6">
-        <v>25</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1576,15 +1629,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="6">
-        <v>205</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1594,15 +1645,15 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="6">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1612,13 +1663,15 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6">
+        <v>30</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1628,13 +1681,13 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1644,15 +1697,15 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="6">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1662,13 +1715,13 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1678,15 +1731,13 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="6">
-        <v>200</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1696,13 +1747,13 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1712,13 +1763,13 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1728,13 +1779,13 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1743,14 +1794,16 @@
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="18">
-        <v>50</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="19">
+        <v>1120</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="8">
+        <v>1050</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1759,16 +1812,16 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="18">
-        <v>68</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="6">
-        <v>18</v>
+      <c r="D28" s="19">
+        <v>2078</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="8">
+        <v>2010</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1778,13 +1831,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1794,13 +1847,13 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1810,13 +1863,15 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6">
+        <v>200</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1826,13 +1881,15 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E32" s="18"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1841,14 +1898,16 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="18">
-        <v>43</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="19">
+        <v>1056</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="8">
+        <v>1005</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1858,15 +1917,15 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="6">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1876,13 +1935,13 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1892,13 +1951,13 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1908,15 +1967,15 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1926,13 +1985,15 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="6">
+        <v>40</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1942,13 +2003,15 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6">
+        <v>10</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1958,13 +2021,15 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6">
+        <v>100</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1974,15 +2039,13 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="6">
-        <v>200</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1992,13 +2055,13 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2008,13 +2071,13 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2024,13 +2087,13 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2040,15 +2103,15 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2058,13 +2121,15 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E46" s="18"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="6">
+        <v>25</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2074,13 +2139,13 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2090,13 +2155,15 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E48" s="18"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6">
+        <v>18</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2106,13 +2173,15 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E49" s="18"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6">
+        <v>15</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2122,15 +2191,15 @@
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2140,15 +2209,13 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="E51" s="18"/>
-      <c r="F51" s="6">
-        <v>128</v>
-      </c>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2158,13 +2225,15 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="E52" s="18"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="6">
+        <v>200</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2174,13 +2243,13 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2190,13 +2259,13 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2206,13 +2275,13 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2222,13 +2291,13 @@
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2238,15 +2307,13 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E57" s="18"/>
-      <c r="F57" s="6">
-        <v>8</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2256,13 +2323,13 @@
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2272,13 +2339,13 @@
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2288,13 +2355,13 @@
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2304,13 +2371,15 @@
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E61" s="18"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6">
+        <v>34</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2320,13 +2389,13 @@
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2336,13 +2405,13 @@
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2352,13 +2421,13 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2368,13 +2437,13 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2384,13 +2453,13 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2400,13 +2469,13 @@
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2416,13 +2485,15 @@
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E68" s="18"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6">
+        <v>4</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2432,13 +2503,13 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2448,13 +2519,13 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2464,13 +2535,13 @@
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2479,16 +2550,16 @@
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="19">
-        <v>1070</v>
-      </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="8">
-        <v>1050</v>
+      <c r="D72" s="18">
+        <v>150</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="6">
+        <v>128</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2498,15 +2569,13 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E73" s="18"/>
-      <c r="F73" s="6">
-        <v>5</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2516,15 +2585,13 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="18"/>
-      <c r="F74" s="6">
-        <v>2</v>
-      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2550,15 +2617,13 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E76" s="18"/>
-      <c r="F76" s="6">
-        <v>31</v>
-      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2568,13 +2633,15 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E77" s="18"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="6">
+        <v>4</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2583,16 +2650,16 @@
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
-      <c r="D78" s="19">
-        <v>2028</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="8">
-        <v>2010</v>
+      <c r="D78" s="18">
+        <v>65</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="6">
+        <v>45</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2602,13 +2669,15 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E79" s="18"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="6">
+        <v>10</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2618,13 +2687,13 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2634,13 +2703,13 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2650,13 +2719,15 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E82" s="18"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="6">
+        <v>6</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2666,13 +2737,15 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E83" s="18"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="6">
+        <v>8</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2682,13 +2755,13 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2698,13 +2771,13 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2714,15 +2787,13 @@
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E86" s="18"/>
-      <c r="F86" s="6">
-        <v>18</v>
-      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2732,13 +2803,13 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2748,15 +2819,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E88" s="18"/>
-      <c r="F88" s="6">
-        <v>40</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2766,13 +2835,13 @@
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2782,15 +2851,13 @@
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E90" s="18"/>
-      <c r="F90" s="6">
-        <v>10</v>
-      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2800,15 +2867,13 @@
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E91" s="18"/>
-      <c r="F91" s="6">
-        <v>90</v>
-      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2818,13 +2883,13 @@
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2834,13 +2899,13 @@
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2850,13 +2915,13 @@
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2866,13 +2931,13 @@
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2885,28 +2950,28 @@
         <v>19</v>
       </c>
       <c r="E96" s="18"/>
-      <c r="F96" s="6">
-        <v>5</v>
-      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="18">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E97" s="18"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="6">
+        <v>31</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2916,13 +2981,13 @@
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2932,13 +2997,13 @@
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2948,13 +3013,13 @@
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2964,13 +3029,13 @@
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2980,15 +3045,13 @@
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102" s="18"/>
-      <c r="F102" s="6">
-        <v>4</v>
-      </c>
+      <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2998,15 +3061,13 @@
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E103" s="18"/>
-      <c r="F103" s="6">
-        <v>10</v>
-      </c>
+      <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3016,13 +3077,13 @@
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3032,13 +3093,13 @@
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3048,13 +3109,15 @@
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E106" s="18"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="6">
+        <v>10</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3064,15 +3127,13 @@
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="18">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="E107" s="18"/>
-      <c r="F107" s="6">
-        <v>200</v>
-      </c>
+      <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3082,13 +3143,13 @@
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3098,15 +3159,15 @@
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="18">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3116,13 +3177,13 @@
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3132,13 +3193,15 @@
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E111" s="18"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="6">
+        <v>18</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3148,13 +3211,15 @@
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="18">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E112" s="18"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="6">
+        <v>20</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3164,13 +3229,15 @@
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="18">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E113" s="18"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="6">
+        <v>90</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3180,13 +3247,13 @@
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E114" s="18"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3196,15 +3263,15 @@
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="18">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="6">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3214,15 +3281,13 @@
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="18">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E116" s="18"/>
-      <c r="F116" s="6">
-        <v>100</v>
-      </c>
+      <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3232,13 +3297,13 @@
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3248,13 +3313,13 @@
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3264,13 +3329,13 @@
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3280,13 +3345,13 @@
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3296,13 +3361,15 @@
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="18">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E121" s="18"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="6">
+        <v>30</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3312,29 +3379,31 @@
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E122" s="18"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="6">
+        <v>5</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3344,13 +3413,13 @@
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3360,13 +3429,15 @@
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="18">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E125" s="18"/>
-      <c r="F125" s="7"/>
+      <c r="F125" s="6">
+        <v>6</v>
+      </c>
       <c r="G125" s="7"/>
       <c r="H125" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3376,13 +3447,13 @@
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3392,13 +3463,13 @@
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3408,13 +3479,13 @@
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3472,13 +3543,13 @@
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3488,15 +3559,15 @@
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="18">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="6">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3506,13 +3577,13 @@
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3522,13 +3593,13 @@
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3538,13 +3609,13 @@
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3554,15 +3625,13 @@
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E137" s="18"/>
-      <c r="F137" s="6">
-        <v>4</v>
-      </c>
+      <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3572,13 +3641,13 @@
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3588,13 +3657,15 @@
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E139" s="18"/>
-      <c r="F139" s="7"/>
+      <c r="F139" s="6">
+        <v>4</v>
+      </c>
       <c r="G139" s="7"/>
       <c r="H139" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3604,13 +3675,13 @@
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3620,13 +3691,13 @@
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3636,13 +3707,13 @@
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3652,13 +3723,13 @@
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3668,13 +3739,13 @@
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E144" s="18"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3684,13 +3755,13 @@
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3700,13 +3771,13 @@
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3716,13 +3787,13 @@
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3732,13 +3803,15 @@
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="18">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="E148" s="18"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="6">
+        <v>200</v>
+      </c>
       <c r="G148" s="7"/>
       <c r="H148" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3748,13 +3821,13 @@
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3764,13 +3837,13 @@
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3780,13 +3853,13 @@
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3796,13 +3869,13 @@
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3812,13 +3885,13 @@
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3828,13 +3901,13 @@
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3844,13 +3917,13 @@
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3860,13 +3933,15 @@
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="18">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E156" s="18"/>
-      <c r="F156" s="7"/>
+      <c r="F156" s="6">
+        <v>100</v>
+      </c>
       <c r="G156" s="7"/>
       <c r="H156" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3876,15 +3951,15 @@
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="18">
-        <v>45</v>
+        <v>510</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="6">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G157" s="7"/>
       <c r="H157" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3894,13 +3969,13 @@
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3910,13 +3985,13 @@
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3926,13 +4001,15 @@
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E160" s="18"/>
-      <c r="F160" s="7"/>
+      <c r="F160" s="6">
+        <v>6</v>
+      </c>
       <c r="G160" s="7"/>
       <c r="H160" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3942,13 +4019,13 @@
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3958,13 +4035,13 @@
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3974,13 +4051,13 @@
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3990,13 +4067,13 @@
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4006,13 +4083,13 @@
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4022,13 +4099,13 @@
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4038,13 +4115,13 @@
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4054,13 +4131,13 @@
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4070,13 +4147,15 @@
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E169" s="18"/>
-      <c r="F169" s="7"/>
+      <c r="F169" s="6">
+        <v>4</v>
+      </c>
       <c r="G169" s="7"/>
       <c r="H169" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4086,13 +4165,13 @@
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4102,13 +4181,13 @@
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4118,13 +4197,13 @@
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4134,13 +4213,13 @@
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4150,13 +4229,13 @@
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4166,13 +4245,13 @@
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4182,13 +4261,13 @@
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4198,13 +4277,13 @@
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4214,12 +4293,10 @@
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E178" s="18"/>
-      <c r="F178" s="6">
-        <v>1</v>
-      </c>
+      <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="6">
         <v>5</v>
@@ -4232,13 +4309,15 @@
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="18">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E179" s="18"/>
-      <c r="F179" s="7"/>
+      <c r="F179" s="6">
+        <v>40</v>
+      </c>
       <c r="G179" s="7"/>
       <c r="H179" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4248,13 +4327,13 @@
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
       <c r="D180" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4264,13 +4343,13 @@
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
       <c r="D181" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4280,13 +4359,13 @@
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
       <c r="D182" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4296,29 +4375,31 @@
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
       <c r="D183" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E183" s="18"/>
-      <c r="F183" s="7"/>
+      <c r="F183" s="6">
+        <v>2</v>
+      </c>
       <c r="G183" s="7"/>
       <c r="H183" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
         <v>187</v>
       </c>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
       <c r="D184" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4328,13 +4409,13 @@
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
       <c r="D185" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4344,13 +4425,13 @@
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
       <c r="D186" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4360,13 +4441,13 @@
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
       <c r="D187" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4376,15 +4457,13 @@
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
       <c r="D188" s="18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E188" s="18"/>
-      <c r="F188" s="6">
-        <v>5</v>
-      </c>
+      <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4394,15 +4473,13 @@
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
       <c r="D189" s="18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E189" s="18"/>
-      <c r="F189" s="6">
-        <v>10</v>
-      </c>
+      <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4412,13 +4489,13 @@
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
       <c r="D190" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E190" s="18"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4428,13 +4505,13 @@
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E191" s="18"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4444,13 +4521,13 @@
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E192" s="18"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4460,13 +4537,13 @@
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4476,13 +4553,13 @@
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
       <c r="D194" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E194" s="18"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4492,13 +4569,13 @@
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
       <c r="D195" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4508,13 +4585,13 @@
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
       <c r="D196" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4524,13 +4601,13 @@
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
       <c r="D197" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4540,13 +4617,13 @@
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
       <c r="D198" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4556,13 +4633,13 @@
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
       <c r="D199" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4572,13 +4649,13 @@
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
       <c r="D200" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E200" s="18"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4588,13 +4665,13 @@
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
       <c r="D201" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4604,15 +4681,13 @@
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
       <c r="D202" s="18">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E202" s="18"/>
-      <c r="F202" s="6">
-        <v>29</v>
-      </c>
+      <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4622,13 +4697,13 @@
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
       <c r="D203" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" s="18"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4638,13 +4713,13 @@
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
       <c r="D204" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204" s="18"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4654,13 +4729,13 @@
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
       <c r="D205" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E205" s="18"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4670,13 +4745,15 @@
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
       <c r="D206" s="18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E206" s="18"/>
-      <c r="F206" s="7"/>
+      <c r="F206" s="6">
+        <v>5</v>
+      </c>
       <c r="G206" s="7"/>
       <c r="H206" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4686,15 +4763,13 @@
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
       <c r="D207" s="18">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E207" s="18"/>
-      <c r="F207" s="6">
-        <v>45</v>
-      </c>
+      <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4704,29 +4779,31 @@
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
       <c r="D208" s="18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E208" s="18"/>
-      <c r="F208" s="7"/>
+      <c r="F208" s="6">
+        <v>10</v>
+      </c>
       <c r="G208" s="7"/>
       <c r="H208" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
       <c r="D209" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209" s="18"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4736,13 +4813,13 @@
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
       <c r="D210" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4752,13 +4829,13 @@
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
       <c r="D211" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E211" s="18"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4768,13 +4845,13 @@
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
       <c r="D212" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E212" s="18"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4784,13 +4861,13 @@
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
       <c r="D213" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213" s="18"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4800,13 +4877,13 @@
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
       <c r="D214" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E214" s="18"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4816,13 +4893,13 @@
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
       <c r="D215" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E215" s="18"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4832,13 +4909,13 @@
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
       <c r="D216" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E216" s="18"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4848,13 +4925,13 @@
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
       <c r="D217" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E217" s="18"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4864,15 +4941,13 @@
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E218" s="18"/>
-      <c r="F218" s="6">
-        <v>4</v>
-      </c>
+      <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4882,13 +4957,13 @@
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
       <c r="D219" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E219" s="18"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4898,13 +4973,13 @@
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
       <c r="D220" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E220" s="18"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4914,13 +4989,13 @@
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
       <c r="D221" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221" s="18"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4930,13 +5005,13 @@
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
       <c r="D222" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E222" s="18"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4946,13 +5021,13 @@
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
       <c r="D223" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E223" s="18"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4962,15 +5037,13 @@
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
       <c r="D224" s="18">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E224" s="18"/>
-      <c r="F224" s="6">
-        <v>15</v>
-      </c>
+      <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4980,13 +5053,13 @@
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
       <c r="D225" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E225" s="18"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4996,13 +5069,15 @@
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
       <c r="D226" s="18">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E226" s="18"/>
-      <c r="F226" s="7"/>
+      <c r="F226" s="6">
+        <v>29</v>
+      </c>
       <c r="G226" s="7"/>
       <c r="H226" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5012,12 +5087,10 @@
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
       <c r="D227" s="18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E227" s="18"/>
-      <c r="F227" s="6">
-        <v>10</v>
-      </c>
+      <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="6">
         <v>2</v>
@@ -5030,11 +5103,11 @@
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
       <c r="D228" s="18">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E228" s="18"/>
       <c r="F228" s="6">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G228" s="7"/>
       <c r="H228" s="6">
@@ -5080,12 +5153,10 @@
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
       <c r="D231" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E231" s="18"/>
-      <c r="F231" s="6">
-        <v>6</v>
-      </c>
+      <c r="F231" s="7"/>
       <c r="G231" s="7"/>
       <c r="H231" s="6">
         <v>2</v>
@@ -5130,13 +5201,13 @@
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
       <c r="D234" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234" s="18"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5146,15 +5217,13 @@
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
       <c r="D235" s="18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E235" s="18"/>
-      <c r="F235" s="6">
-        <v>10</v>
-      </c>
+      <c r="F235" s="7"/>
       <c r="G235" s="7"/>
       <c r="H235" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5164,13 +5233,13 @@
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
       <c r="D236" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236" s="18"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
       <c r="H236" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5180,13 +5249,13 @@
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
       <c r="D237" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" s="18"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
       <c r="H237" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5196,15 +5265,13 @@
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
       <c r="D238" s="18">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E238" s="18"/>
-      <c r="F238" s="6">
-        <v>25</v>
-      </c>
+      <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="H238" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5214,13 +5281,15 @@
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
       <c r="D239" s="18">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E239" s="18"/>
-      <c r="F239" s="7"/>
+      <c r="F239" s="6">
+        <v>31</v>
+      </c>
       <c r="G239" s="7"/>
       <c r="H239" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5230,13 +5299,13 @@
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
       <c r="D240" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" s="18"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
       <c r="H240" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5246,13 +5315,13 @@
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
       <c r="D241" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E241" s="18"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
       <c r="H241" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5262,13 +5331,13 @@
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
       <c r="D242" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242" s="18"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
       <c r="H242" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5278,13 +5347,15 @@
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
       <c r="D243" s="18">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E243" s="18"/>
-      <c r="F243" s="7"/>
+      <c r="F243" s="6">
+        <v>45</v>
+      </c>
       <c r="G243" s="7"/>
       <c r="H243" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5294,15 +5365,13 @@
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
       <c r="D244" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E244" s="18"/>
-      <c r="F244" s="6">
-        <v>5</v>
-      </c>
+      <c r="F244" s="7"/>
       <c r="G244" s="7"/>
       <c r="H244" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5312,13 +5381,13 @@
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
       <c r="D245" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245" s="18"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
       <c r="H245" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5328,13 +5397,13 @@
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
       <c r="D246" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246" s="18"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
       <c r="H246" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5344,13 +5413,13 @@
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
       <c r="D247" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247" s="18"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
       <c r="H247" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5360,13 +5429,13 @@
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
       <c r="D248" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248" s="18"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
       <c r="H248" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5376,15 +5445,15 @@
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
       <c r="D249" s="18">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="E249" s="18"/>
       <c r="F249" s="6">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="G249" s="7"/>
       <c r="H249" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5442,12 +5511,10 @@
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
       <c r="D253" s="18">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E253" s="18"/>
-      <c r="F253" s="6">
-        <v>35</v>
-      </c>
+      <c r="F253" s="7"/>
       <c r="G253" s="7"/>
       <c r="H253" s="6">
         <v>1</v>
@@ -5460,12 +5527,10 @@
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
       <c r="D254" s="18">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E254" s="18"/>
-      <c r="F254" s="6">
-        <v>30</v>
-      </c>
+      <c r="F254" s="7"/>
       <c r="G254" s="7"/>
       <c r="H254" s="6">
         <v>1</v>
@@ -5478,12 +5543,10 @@
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="18">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E255" s="18"/>
-      <c r="F255" s="6">
-        <v>28</v>
-      </c>
+      <c r="F255" s="7"/>
       <c r="G255" s="7"/>
       <c r="H255" s="6">
         <v>1</v>
@@ -5495,13 +5558,11 @@
       </c>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
-      <c r="D256" s="19">
-        <v>1006</v>
-      </c>
-      <c r="E256" s="19"/>
-      <c r="F256" s="8">
-        <v>1005</v>
-      </c>
+      <c r="D256" s="18">
+        <v>1</v>
+      </c>
+      <c r="E256" s="18"/>
+      <c r="F256" s="7"/>
       <c r="G256" s="7"/>
       <c r="H256" s="6">
         <v>1</v>
@@ -5546,11 +5607,11 @@
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
       <c r="D259" s="18">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E259" s="18"/>
       <c r="F259" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G259" s="7"/>
       <c r="H259" s="6">
@@ -5564,10 +5625,12 @@
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="18">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E260" s="18"/>
-      <c r="F260" s="7"/>
+      <c r="F260" s="6">
+        <v>28</v>
+      </c>
       <c r="G260" s="7"/>
       <c r="H260" s="6">
         <v>1</v>
@@ -5580,11 +5643,11 @@
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
       <c r="D261" s="18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E261" s="18"/>
       <c r="F261" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G261" s="7"/>
       <c r="H261" s="6">
@@ -5630,43 +5693,379 @@
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
       <c r="D264" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E264" s="18"/>
-      <c r="F264" s="6">
-        <v>4</v>
-      </c>
+      <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="14" t="s">
+    <row r="265" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="18">
+        <v>21</v>
+      </c>
+      <c r="E265" s="18"/>
+      <c r="F265" s="6">
+        <v>20</v>
+      </c>
+      <c r="G265" s="7"/>
+      <c r="H265" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
+      <c r="D266" s="18">
+        <v>1</v>
+      </c>
+      <c r="E266" s="18"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267" s="17"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="18">
+        <v>1</v>
+      </c>
+      <c r="E267" s="18"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
+      <c r="H267" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="18">
+        <v>11</v>
+      </c>
+      <c r="E268" s="18"/>
+      <c r="F268" s="6">
+        <v>10</v>
+      </c>
+      <c r="G268" s="7"/>
+      <c r="H268" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="18">
+        <v>6</v>
+      </c>
+      <c r="E269" s="18"/>
+      <c r="F269" s="6">
+        <v>5</v>
+      </c>
+      <c r="G269" s="7"/>
+      <c r="H269" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" s="17"/>
+      <c r="C270" s="17"/>
+      <c r="D270" s="18">
+        <v>201</v>
+      </c>
+      <c r="E270" s="18"/>
+      <c r="F270" s="6">
+        <v>200</v>
+      </c>
+      <c r="G270" s="7"/>
+      <c r="H270" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="18">
+        <v>1</v>
+      </c>
+      <c r="E271" s="18"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="18">
+        <v>1</v>
+      </c>
+      <c r="E272" s="18"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="18">
+        <v>46</v>
+      </c>
+      <c r="E273" s="18"/>
+      <c r="F273" s="6">
+        <v>45</v>
+      </c>
+      <c r="G273" s="7"/>
+      <c r="H273" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" s="17"/>
+      <c r="C274" s="17"/>
+      <c r="D274" s="18">
+        <v>31</v>
+      </c>
+      <c r="E274" s="18"/>
+      <c r="F274" s="6">
+        <v>30</v>
+      </c>
+      <c r="G274" s="7"/>
+      <c r="H274" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="18">
+        <v>1</v>
+      </c>
+      <c r="E275" s="18"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="18">
+        <v>1</v>
+      </c>
+      <c r="E276" s="18"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
+      <c r="H276" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277" s="17"/>
+      <c r="C277" s="17"/>
+      <c r="D277" s="18">
+        <v>1</v>
+      </c>
+      <c r="E277" s="18"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="7"/>
+      <c r="H277" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="18">
+        <v>1</v>
+      </c>
+      <c r="E278" s="18"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="7"/>
+      <c r="H278" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" s="17"/>
+      <c r="C279" s="17"/>
+      <c r="D279" s="18">
+        <v>1</v>
+      </c>
+      <c r="E279" s="18"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="7"/>
+      <c r="H279" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" s="17"/>
+      <c r="C280" s="17"/>
+      <c r="D280" s="18">
+        <v>1</v>
+      </c>
+      <c r="E280" s="18"/>
+      <c r="F280" s="7"/>
+      <c r="G280" s="7"/>
+      <c r="H280" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" s="17"/>
+      <c r="C281" s="17"/>
+      <c r="D281" s="18">
+        <v>5</v>
+      </c>
+      <c r="E281" s="18"/>
+      <c r="F281" s="6">
+        <v>4</v>
+      </c>
+      <c r="G281" s="7"/>
+      <c r="H281" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="17"/>
+      <c r="C282" s="17"/>
+      <c r="D282" s="18">
+        <v>1</v>
+      </c>
+      <c r="E282" s="18"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="20">
-        <v>11952</v>
-      </c>
-      <c r="E265" s="20"/>
-      <c r="F265" s="9">
-        <v>7074</v>
-      </c>
-      <c r="G265" s="10"/>
-      <c r="H265" s="9">
-        <v>4878</v>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="20">
+        <v>14267</v>
+      </c>
+      <c r="E283" s="20"/>
+      <c r="F283" s="9">
+        <v>7903</v>
+      </c>
+      <c r="G283" s="10"/>
+      <c r="H283" s="9">
+        <v>6364</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="525">
+  <mergeCells count="561">
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="D272:E272"/>
     <mergeCell ref="A263:C263"/>
     <mergeCell ref="D263:E263"/>
     <mergeCell ref="A264:C264"/>
     <mergeCell ref="D264:E264"/>
     <mergeCell ref="A265:C265"/>
     <mergeCell ref="D265:E265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:E267"/>
     <mergeCell ref="A258:C258"/>
     <mergeCell ref="D258:E258"/>
     <mergeCell ref="A259:C259"/>

--- a/data/titanium_base/titanium_base_unsh.xlsx
+++ b/data/titanium_base/titanium_base_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\titanium_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\titanium_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD6981-2F25-4970-80A8-E1C6977B57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8D2AC-1DB6-476B-AFC8-93C778CAD2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="266">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,12 +56,18 @@
     <t>Титановое основание</t>
   </si>
   <si>
+    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>43026уп ТО LM Pro Long Bego Semados 3.25/3.75 full G/H=1.5 H=8 с позиционером V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
@@ -71,748 +77,751 @@
     <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
   </si>
   <si>
+    <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>387131опт ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>43035Вуп2 ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38706опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38146В1опт ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200Bопт ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39071опт ТО LM Bell (GEO) Mis SP (3.75/4.2) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38272Bопт ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38144опт ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39070опт ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38238Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38217В2опт ТО LM Half (2 лыски) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38215Вопт ТО LM Half (2 лыски) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
+  </si>
+  <si>
+    <t>39072опт ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38234А1опт ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
+    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
+  </si>
+  <si>
+    <t>39070уп2 ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39069уп2 ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38707опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39038уп ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38708уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
+  </si>
+  <si>
+    <t>39036уп2 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38704уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38702Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38769Н-2к ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767Н-2к ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38770Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASW-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146В1уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38700Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38789опт ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38254В1опт ТО LM Flat (2 лыски, с насечками) ICX Medentis full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38217В3опт ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39048уп2 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38980опт ТО LM Pro Long ICX Medentis full G/H=1 H=8 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
+  </si>
+  <si>
+    <t>38767опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39008Н ТО LM TiN Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38770Н-2к ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASW-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43049Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38769Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39069Нопт ТО LM TiN Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39097 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
+  </si>
+  <si>
+    <t>39009Н ТО LM TiN Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
+  </si>
+  <si>
+    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39097Н ТО LM TiN Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38248ВН1опт ТО LM TiN Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43081Вопт ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38245В ТО LM Patch (NT-Trading) Niko 3.5 full G/H=1 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39069опт ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122опт ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39103опт ТО LM Bell (GEO) Dentis Regular full G/H=1.3 H=5.3 с позиционером (арт. LL2-DERT13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38721опт ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38247Вопт ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43077Вопт ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39069 ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 /</t>
+  </si>
+  <si>
+    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38141В3опт ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=2.6 H=4.5 без позиционера V.6 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38731опт ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39009опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
   </si>
   <si>
-    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38768уп2 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38215Вопт ТО LM Half (2 лыски) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205B1опт ТО LM Half (2 лыски) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.1 H=4 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
-  </si>
-  <si>
-    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38236Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38290Вопт ТО LM Flat (2 лыски, с насечками) Sic 3.3 full G/H=0.4 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234опт ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38179В ТО LM Patch (NT-Trading) Sky Bredent bridge G/H=0.3 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38168Вопт ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
-  </si>
-  <si>
-    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38240В1опт ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38243опт ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38254В1опт ТО LM Flat (2 лыски, с насечками) ICX Medentis full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38772опт2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>39046опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=2 H=5.3 с позиционером (арт. LL2-TSV320-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38245В ТО LM Flat (2 лыски, с насечками) Niko 3.5 full G/H=1 H=4.5 с позиционером V.6 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38727СБН-2к ТО LM TiN Bell (GEO) СО СВАРНЫМ ВИНТОМ Ankylos C bridge G/H=1.3 H=5.3 без позиционера V.2.A /II КАТ / В СБОРЕ С ВИНТОМ И ВТУЛКОЙ</t>
+  </si>
+  <si>
+    <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38224В ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
-    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
-  </si>
-  <si>
-    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39008опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38145ВНопт ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38146В1опт ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38761 ТО LM Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38241CПопт ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером ПОЛИР. V.1.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38243уп2 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>43031Вопт ТО LM Flat (2 лыски, с насечками) AB Dental full G/H=0.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38250опт ТО LM Patch (NT-Trading) BioHorizons 3.0 full G/H=1.2 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39099опт ТО LM Bell (GEO) Sic 3.3 bridge G/H=0.8 H=5.3 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
-  </si>
-  <si>
-    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39097опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>39094опт ТО LM Bell (GEO) Straumann SynOcta WN (6.5) full G/H=2 H=6 с позиционером (арт. LL2-ITW20-O) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38291Вопт2 ТО LM Flat (2 лыски, с насечками) Sic 4.2 full G/H=0.4 H=4.5 с позиционером V.1 / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>39041Н ТО LM TiN Bell (GEO) Nobel Active 3.0 full G/H=1.3 H=4.6 с позиционером (арт. LL2-AC30-T) V.1.A /</t>
-  </si>
-  <si>
-    <t>38248В ТО LM Half (2 лыски) Mis SP (3.75/4.2) full G/H=0.6 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38771опт ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
-  </si>
-  <si>
-    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43040Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38757опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38760опт ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43041Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38255ВП2опт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.0 full G/H=1 H=4.5 с позиционером ПОЛИР. V.3.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38282В2опт ТО LM Flat (2 лыски, с насечками) Adin NP (3.0) full G/H=1.5 H=4.5 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38180Вопт2 ТО LM Flat (2 лыски, с насечками) Adin NP (3.0) bridge G/H=1.5 H=4.5 без позиционера V.1 / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>39007Нопт ТО LM TiN Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38250Вопт ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38283В2опт ТО LM Flat (2 лыски, с насечками) Adin RP (3.5) full G/H=1 H=4.5 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38788опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) bridge G/H=1.3 H=4.55 без позиционера (арт. LL2-BLM-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38222Вопт ТО LM Half (2 лыски) Astra Tech 3.5/4.0 full G/H=1.2 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38181Вопт ТО LM Flat (2 лыски, с насечками) Adin RP (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39023 ТО LM (собств. разр.) Roott bridge G/H=1.5 H=6 без позиционера V.1</t>
-  </si>
-  <si>
-    <t>38979 ТО LM (собств. разр.) Roott full G/H=1.2 H=4 с позиционером V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39070опт ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38716уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>39007опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39009опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39069Нопт ТО LM TiN Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38769опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39067 ТО LM Bell (GEO) Nobel Active WP (5.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-ACW-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205BНопт ТО LM TiN Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3.A / ВКЛ.</t>
-  </si>
-  <si>
-    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>43035Вопт ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38258В ТО LM (копия оригинала) Bego Semados 4.1 full G/H=0.2 H=5 с позиционером (арт. 57287) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38157Вопт ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39082опт ТО LM Bell (GEO) Bego Semados 4.1 full G/H=0.7 H=5.3 с позиционером (арт. LL2-BEGO41-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>39029Н ТО LM TiN Bell (GEO) Straumann SynOcta WN (6.5) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITW-O) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38750 ТО LM Bell (GEO) Xive 3.4 bridge G/H=1 H=5.3 без позиционера (арт. LL2-XVM-N) V.1 / / БЕЗ ВИНТА</t>
+    <t>38705Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38707Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
+  </si>
+  <si>
+    <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712Н ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38205B2опт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38722опт ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38139Сопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 / ВКЛ. 1 В</t>
-  </si>
-  <si>
-    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38140С1опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 / ВКЛ. 1</t>
-  </si>
-  <si>
-    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38128Cопт ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=1.2 H=4 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38284В ТО LM Flat (2 лыски, с насечками) Adin WP (4.3/5.0) full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38246ВПопт ТО LM Patch (NT-Trading) Niko 4.5 full G/H=0.7 H=4 с позиционером ПОЛИР. V.1.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38160ВП2опт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.0 bridge G/H=1.01 H=4.5 без позиционера ПОЛИР. V.3.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38246Вопт ТО LM Flat (2 лыски, с насечками) Niko 4.5 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38157В1опт ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38246опт ТО LM Patch (NT-Trading) Niko 4.5 full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38158Вопт ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39002В ТО LM Flat (2 лыски, с насечками) MegaGen MiNi full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38204B3опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>Титановое основание на Multi-Unit</t>
   </si>
   <si>
-    <t>35892Mопт ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen) D=4.8 V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>35892Oопт ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Osstem) D=4.8 V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>35892NLуп2 ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Nobel) D=4.8 V.1 / 2 ВИНТА, УПАК</t>
   </si>
 </sst>
 </file>
@@ -908,13 +917,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,10 +956,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1310,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,7 +1323,8 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1374,31 +1384,31 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>11228</v>
+        <v>15121</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>7061</v>
+        <v>7970</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>400</v>
+        <v>2252</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>400</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1407,16 +1417,14 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="19">
-        <v>310</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
+      <c r="D8" s="20">
+        <v>400</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="6">
-        <v>300</v>
+      <c r="H8" s="8">
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1425,16 +1433,16 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="19">
-        <v>172</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="6">
-        <v>20</v>
+      <c r="D9" s="20">
+        <v>310</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8">
+        <v>10</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="6">
-        <v>152</v>
+      <c r="H9" s="8">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1443,14 +1451,16 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="19">
-        <v>151</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="20">
+        <v>410</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="8">
+        <v>200</v>
+      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="6">
-        <v>151</v>
+      <c r="H10" s="8">
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1459,14 +1469,16 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19">
-        <v>150</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="20">
+        <v>208</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8">
+        <v>20</v>
+      </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="6">
-        <v>150</v>
+      <c r="H11" s="8">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1475,16 +1487,14 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="19">
-        <v>241</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="6">
-        <v>132</v>
-      </c>
+      <c r="D12" s="20">
+        <v>161</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="6">
-        <v>109</v>
+      <c r="H12" s="8">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1493,16 +1503,14 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="19">
-        <v>250</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="6">
-        <v>150</v>
-      </c>
+      <c r="D13" s="20">
+        <v>151</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6">
-        <v>100</v>
+      <c r="H13" s="8">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1511,14 +1519,16 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="19">
-        <v>100</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="20">
+        <v>281</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="8">
+        <v>150</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="6">
-        <v>100</v>
+      <c r="H14" s="8">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1527,16 +1537,14 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="19">
-        <v>297</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="6">
-        <v>200</v>
-      </c>
+      <c r="D15" s="20">
+        <v>100</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="6">
-        <v>97</v>
+      <c r="H15" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1545,16 +1553,16 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="19">
-        <v>115</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="6">
-        <v>25</v>
+      <c r="D16" s="20">
+        <v>298</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="8">
+        <v>200</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="6">
-        <v>90</v>
+      <c r="H16" s="8">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1563,16 +1571,16 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="19">
-        <v>289</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="6">
-        <v>205</v>
+      <c r="D17" s="20">
+        <v>294</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="8">
+        <v>200</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="6">
-        <v>84</v>
+      <c r="H17" s="8">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1581,14 +1589,16 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="19">
-        <v>70</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="20">
+        <v>115</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="8">
+        <v>25</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="6">
-        <v>70</v>
+      <c r="H18" s="8">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1597,13 +1607,13 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="19">
+      <c r="D19" s="20">
         <v>70</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="6">
+      <c r="H19" s="8">
         <v>70</v>
       </c>
     </row>
@@ -1613,14 +1623,16 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19">
-        <v>65</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="20">
+        <v>73</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="6">
-        <v>65</v>
+      <c r="H20" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1629,16 +1641,14 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="19">
-        <v>262</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="6">
-        <v>200</v>
-      </c>
+      <c r="D21" s="20">
+        <v>61</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="6">
-        <v>62</v>
+      <c r="H21" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1647,14 +1657,14 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="19">
-        <v>55</v>
-      </c>
-      <c r="E22" s="19"/>
+      <c r="D22" s="20">
+        <v>60</v>
+      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="6">
-        <v>55</v>
+      <c r="H22" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1663,14 +1673,14 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="19">
-        <v>54</v>
-      </c>
-      <c r="E23" s="19"/>
+      <c r="D23" s="20">
+        <v>56</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="6">
-        <v>54</v>
+      <c r="H23" s="8">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1679,16 +1689,14 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="19">
-        <v>57</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="6">
-        <v>5</v>
-      </c>
+      <c r="D24" s="20">
+        <v>55</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="6">
-        <v>52</v>
+      <c r="H24" s="8">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1697,14 +1705,16 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="19">
-        <v>50</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="20">
+        <v>259</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="8">
+        <v>205</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="6">
-        <v>50</v>
+      <c r="H25" s="8">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1713,14 +1723,14 @@
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="19">
-        <v>46</v>
-      </c>
-      <c r="E26" s="19"/>
+      <c r="D26" s="20">
+        <v>51</v>
+      </c>
+      <c r="E26" s="20"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="6">
-        <v>46</v>
+      <c r="H26" s="8">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1729,14 +1739,14 @@
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="19">
-        <v>40</v>
-      </c>
-      <c r="E27" s="19"/>
+      <c r="D27" s="20">
+        <v>50</v>
+      </c>
+      <c r="E27" s="20"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="6">
-        <v>40</v>
+      <c r="H27" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1745,16 +1755,14 @@
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="19">
-        <v>440</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="6">
-        <v>400</v>
-      </c>
+      <c r="D28" s="20">
+        <v>50</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="6">
-        <v>40</v>
+      <c r="H28" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1763,14 +1771,14 @@
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="19">
-        <v>38</v>
-      </c>
-      <c r="E29" s="19"/>
+      <c r="D29" s="20">
+        <v>50</v>
+      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="6">
-        <v>38</v>
+      <c r="H29" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1779,16 +1787,14 @@
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="19">
-        <v>52</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="6">
-        <v>15</v>
-      </c>
+      <c r="D30" s="20">
+        <v>46</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="6">
-        <v>37</v>
+      <c r="H30" s="8">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1797,14 +1803,16 @@
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="19">
-        <v>35</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="20">
+        <v>60</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="8">
+        <v>15</v>
+      </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="6">
-        <v>35</v>
+      <c r="H31" s="8">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1813,16 +1821,16 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="19">
-        <v>233</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="6">
-        <v>200</v>
+      <c r="D32" s="20">
+        <v>440</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="8">
+        <v>400</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="6">
-        <v>33</v>
+      <c r="H32" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1831,14 +1839,14 @@
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="19">
-        <v>31</v>
-      </c>
-      <c r="E33" s="19"/>
+      <c r="D33" s="20">
+        <v>40</v>
+      </c>
+      <c r="E33" s="20"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="6">
-        <v>31</v>
+      <c r="H33" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1848,13 +1856,15 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>30</v>
+        <v>1090</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6">
+        <v>1050</v>
+      </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="6">
-        <v>30</v>
+      <c r="H34" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1863,14 +1873,14 @@
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="19">
-        <v>30</v>
-      </c>
-      <c r="E35" s="19"/>
+      <c r="D35" s="20">
+        <v>40</v>
+      </c>
+      <c r="E35" s="20"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="6">
-        <v>30</v>
+      <c r="H35" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1879,14 +1889,14 @@
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="19">
-        <v>30</v>
-      </c>
-      <c r="E36" s="19"/>
+      <c r="D36" s="20">
+        <v>36</v>
+      </c>
+      <c r="E36" s="20"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="6">
-        <v>30</v>
+      <c r="H36" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1895,16 +1905,16 @@
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="19">
-        <v>55</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="6">
-        <v>25</v>
+      <c r="D37" s="20">
+        <v>37</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="8">
+        <v>1</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="6">
-        <v>30</v>
+      <c r="H37" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1913,14 +1923,14 @@
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="19">
-        <v>22</v>
-      </c>
-      <c r="E38" s="19"/>
+      <c r="D38" s="20">
+        <v>35</v>
+      </c>
+      <c r="E38" s="20"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="6">
-        <v>22</v>
+      <c r="H38" s="8">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1929,16 +1939,14 @@
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="19">
-        <v>150</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="6">
-        <v>128</v>
-      </c>
+      <c r="D39" s="20">
+        <v>32</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="6">
-        <v>22</v>
+      <c r="H39" s="8">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1947,14 +1955,14 @@
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="19">
-        <v>20</v>
-      </c>
-      <c r="E40" s="19"/>
+      <c r="D40" s="20">
+        <v>30</v>
+      </c>
+      <c r="E40" s="20"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="6">
-        <v>20</v>
+      <c r="H40" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1963,14 +1971,14 @@
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="19">
-        <v>20</v>
-      </c>
-      <c r="E41" s="19"/>
+      <c r="D41" s="20">
+        <v>30</v>
+      </c>
+      <c r="E41" s="20"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="6">
-        <v>20</v>
+      <c r="H41" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1979,14 +1987,14 @@
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="19">
-        <v>20</v>
-      </c>
-      <c r="E42" s="19"/>
+      <c r="D42" s="20">
+        <v>30</v>
+      </c>
+      <c r="E42" s="20"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="6">
-        <v>20</v>
+      <c r="H42" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1996,15 +2004,13 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="20">
-        <v>1070</v>
+        <v>30</v>
       </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="8">
-        <v>1050</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="6">
-        <v>20</v>
+      <c r="H43" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="19">
-        <v>20</v>
-      </c>
-      <c r="E44" s="19"/>
+      <c r="D44" s="20">
+        <v>30</v>
+      </c>
+      <c r="E44" s="20"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="6">
-        <v>20</v>
+      <c r="H44" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2029,14 +2035,16 @@
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="19">
-        <v>20</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="20">
+        <v>55</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="8">
+        <v>25</v>
+      </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="6">
-        <v>20</v>
+      <c r="H45" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2045,14 +2053,14 @@
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="19">
-        <v>20</v>
-      </c>
-      <c r="E46" s="19"/>
+      <c r="D46" s="20">
+        <v>30</v>
+      </c>
+      <c r="E46" s="20"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="6">
-        <v>20</v>
+      <c r="H46" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2061,14 +2069,16 @@
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="19">
-        <v>20</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="20">
+        <v>161</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="8">
+        <v>132</v>
+      </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="6">
-        <v>20</v>
+      <c r="H47" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2078,13 +2088,15 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>20</v>
+        <v>2038</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6">
+        <v>2010</v>
+      </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="6">
-        <v>20</v>
+      <c r="H48" s="8">
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2093,14 +2105,14 @@
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="19">
-        <v>20</v>
-      </c>
-      <c r="E49" s="19"/>
+      <c r="D49" s="20">
+        <v>25</v>
+      </c>
+      <c r="E49" s="20"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="6">
-        <v>20</v>
+      <c r="H49" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="19">
-        <v>20</v>
-      </c>
-      <c r="E50" s="19"/>
+      <c r="D50" s="20">
+        <v>23</v>
+      </c>
+      <c r="E50" s="20"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="6">
-        <v>20</v>
+      <c r="H50" s="8">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2125,16 +2137,16 @@
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="19">
-        <v>28</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="6">
-        <v>8</v>
+      <c r="D51" s="20">
+        <v>150</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="8">
+        <v>128</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="6">
-        <v>20</v>
+      <c r="H51" s="8">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2143,14 +2155,16 @@
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="19">
-        <v>20</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="20">
+        <v>222</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="8">
+        <v>200</v>
+      </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="6">
-        <v>20</v>
+      <c r="H52" s="8">
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2159,16 +2173,16 @@
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="19">
-        <v>50</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="6">
-        <v>31</v>
+      <c r="D53" s="20">
+        <v>28</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="8">
+        <v>6</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="6">
-        <v>19</v>
+      <c r="H53" s="8">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2177,14 +2191,14 @@
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="19">
-        <v>19</v>
-      </c>
-      <c r="E54" s="19"/>
+      <c r="D54" s="20">
+        <v>20</v>
+      </c>
+      <c r="E54" s="20"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="6">
-        <v>19</v>
+      <c r="H54" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2193,14 +2207,14 @@
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="19">
-        <v>19</v>
-      </c>
-      <c r="E55" s="19"/>
+      <c r="D55" s="20">
+        <v>20</v>
+      </c>
+      <c r="E55" s="20"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="6">
-        <v>19</v>
+      <c r="H55" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2210,15 +2224,13 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
-        <v>2028</v>
+        <v>20</v>
       </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="8">
-        <v>2010</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="6">
-        <v>18</v>
+      <c r="H56" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2227,14 +2239,16 @@
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="19">
-        <v>17</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="20">
+        <v>28</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="8">
+        <v>8</v>
+      </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="6">
-        <v>17</v>
+      <c r="H57" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2243,14 +2257,16 @@
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="19">
-        <v>17</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="20">
+        <v>50</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="8">
+        <v>30</v>
+      </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="6">
-        <v>17</v>
+      <c r="H58" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2259,14 +2275,16 @@
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="19">
-        <v>16</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="7"/>
+      <c r="D59" s="20">
+        <v>120</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="8">
+        <v>100</v>
+      </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="6">
-        <v>16</v>
+      <c r="H59" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2275,14 +2293,14 @@
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
-      <c r="D60" s="19">
-        <v>15</v>
-      </c>
-      <c r="E60" s="19"/>
+      <c r="D60" s="20">
+        <v>20</v>
+      </c>
+      <c r="E60" s="20"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="6">
-        <v>15</v>
+      <c r="H60" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2291,14 +2309,14 @@
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
-      <c r="D61" s="19">
-        <v>15</v>
-      </c>
-      <c r="E61" s="19"/>
+      <c r="D61" s="20">
+        <v>20</v>
+      </c>
+      <c r="E61" s="20"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="6">
-        <v>15</v>
+      <c r="H61" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="19">
-        <v>15</v>
-      </c>
-      <c r="E62" s="19"/>
+      <c r="D62" s="20">
+        <v>20</v>
+      </c>
+      <c r="E62" s="20"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="6">
-        <v>15</v>
+      <c r="H62" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2323,14 +2341,14 @@
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="19">
-        <v>15</v>
-      </c>
-      <c r="E63" s="19"/>
+      <c r="D63" s="20">
+        <v>20</v>
+      </c>
+      <c r="E63" s="20"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="6">
-        <v>15</v>
+      <c r="H63" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2339,16 +2357,14 @@
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
-      <c r="D64" s="19">
-        <v>105</v>
-      </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="6">
-        <v>90</v>
-      </c>
+      <c r="D64" s="20">
+        <v>20</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="6">
-        <v>15</v>
+      <c r="H64" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2357,14 +2373,16 @@
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
-      <c r="D65" s="19">
-        <v>15</v>
-      </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="7"/>
+      <c r="D65" s="20">
+        <v>50</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="8">
+        <v>31</v>
+      </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="6">
-        <v>15</v>
+      <c r="H65" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="19">
-        <v>15</v>
-      </c>
-      <c r="E66" s="19"/>
+      <c r="D66" s="20">
+        <v>19</v>
+      </c>
+      <c r="E66" s="20"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="6">
-        <v>15</v>
+      <c r="H66" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2389,14 +2407,14 @@
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
-      <c r="D67" s="19">
-        <v>15</v>
-      </c>
-      <c r="E67" s="19"/>
+      <c r="D67" s="20">
+        <v>18</v>
+      </c>
+      <c r="E67" s="20"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="6">
-        <v>15</v>
+      <c r="H67" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2405,14 +2423,14 @@
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="19">
-        <v>15</v>
-      </c>
-      <c r="E68" s="19"/>
+      <c r="D68" s="20">
+        <v>18</v>
+      </c>
+      <c r="E68" s="20"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="6">
-        <v>15</v>
+      <c r="H68" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
-      <c r="D69" s="19">
-        <v>15</v>
-      </c>
-      <c r="E69" s="19"/>
+      <c r="D69" s="20">
+        <v>17</v>
+      </c>
+      <c r="E69" s="20"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="6">
-        <v>15</v>
+      <c r="H69" s="8">
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2437,16 +2455,14 @@
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
-      <c r="D70" s="19">
-        <v>33</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="6">
-        <v>18</v>
-      </c>
+      <c r="D70" s="20">
+        <v>16</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="6">
-        <v>15</v>
+      <c r="H70" s="8">
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2455,14 +2471,14 @@
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
-      <c r="D71" s="19">
-        <v>15</v>
-      </c>
-      <c r="E71" s="19"/>
+      <c r="D71" s="20">
+        <v>16</v>
+      </c>
+      <c r="E71" s="20"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="6">
-        <v>15</v>
+      <c r="H71" s="8">
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2472,15 +2488,15 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>55</v>
+        <v>1021</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="6">
-        <v>40</v>
+        <v>1005</v>
       </c>
       <c r="G72" s="7"/>
-      <c r="H72" s="6">
-        <v>15</v>
+      <c r="H72" s="8">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2489,14 +2505,14 @@
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
-      <c r="D73" s="19">
-        <v>15</v>
-      </c>
-      <c r="E73" s="19"/>
+      <c r="D73" s="20">
+        <v>16</v>
+      </c>
+      <c r="E73" s="20"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="6">
-        <v>15</v>
+      <c r="H73" s="8">
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2505,15 +2521,13 @@
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
-      <c r="D74" s="19">
-        <v>25</v>
-      </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="6">
-        <v>10</v>
-      </c>
+      <c r="D74" s="20">
+        <v>15</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="6">
+      <c r="H74" s="8">
         <v>15</v>
       </c>
     </row>
@@ -2523,15 +2537,13 @@
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
-      <c r="D75" s="19">
-        <v>35</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="6">
-        <v>20</v>
-      </c>
+      <c r="D75" s="20">
+        <v>15</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="6">
+      <c r="H75" s="8">
         <v>15</v>
       </c>
     </row>
@@ -2541,16 +2553,14 @@
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
-      <c r="D76" s="19">
-        <v>19</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="6">
-        <v>5</v>
-      </c>
+      <c r="D76" s="20">
+        <v>15</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="6">
-        <v>14</v>
+      <c r="H76" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2559,30 +2569,30 @@
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
-      <c r="D77" s="19">
-        <v>13</v>
-      </c>
-      <c r="E77" s="19"/>
+      <c r="D77" s="20">
+        <v>15</v>
+      </c>
+      <c r="E77" s="20"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
-      <c r="D78" s="19">
-        <v>13</v>
-      </c>
-      <c r="E78" s="19"/>
+      <c r="D78" s="20">
+        <v>15</v>
+      </c>
+      <c r="E78" s="20"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="6">
-        <v>13</v>
+      <c r="H78" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2591,14 +2601,14 @@
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
-      <c r="D79" s="19">
-        <v>12</v>
-      </c>
-      <c r="E79" s="19"/>
+      <c r="D79" s="20">
+        <v>15</v>
+      </c>
+      <c r="E79" s="20"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="6">
-        <v>12</v>
+      <c r="H79" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2607,16 +2617,14 @@
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
-      <c r="D80" s="19">
-        <v>42</v>
-      </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="6">
-        <v>30</v>
-      </c>
+      <c r="D80" s="20">
+        <v>15</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="6">
-        <v>12</v>
+      <c r="H80" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2625,14 +2633,14 @@
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
-      <c r="D81" s="19">
-        <v>11</v>
-      </c>
-      <c r="E81" s="19"/>
+      <c r="D81" s="20">
+        <v>15</v>
+      </c>
+      <c r="E81" s="20"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="6">
-        <v>11</v>
+      <c r="H81" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2642,15 +2650,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>1016</v>
+        <v>15</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="8">
-        <v>1005</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="6">
-        <v>11</v>
+      <c r="H82" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2659,14 +2665,16 @@
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
-      <c r="D83" s="19">
-        <v>10</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="7"/>
+      <c r="D83" s="20">
+        <v>49</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="8">
+        <v>34</v>
+      </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="6">
-        <v>10</v>
+      <c r="H83" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2675,14 +2683,14 @@
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
-      <c r="D84" s="19">
-        <v>10</v>
-      </c>
-      <c r="E84" s="19"/>
+      <c r="D84" s="20">
+        <v>15</v>
+      </c>
+      <c r="E84" s="20"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="6">
-        <v>10</v>
+      <c r="H84" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2691,14 +2699,14 @@
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
-      <c r="D85" s="19">
-        <v>10</v>
-      </c>
-      <c r="E85" s="19"/>
+      <c r="D85" s="20">
+        <v>15</v>
+      </c>
+      <c r="E85" s="20"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="6">
-        <v>10</v>
+      <c r="H85" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2707,14 +2715,16 @@
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
-      <c r="D86" s="19">
-        <v>10</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="7"/>
+      <c r="D86" s="20">
+        <v>33</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="8">
+        <v>18</v>
+      </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="6">
-        <v>10</v>
+      <c r="H86" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2723,14 +2733,14 @@
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
-      <c r="D87" s="19">
-        <v>10</v>
-      </c>
-      <c r="E87" s="19"/>
+      <c r="D87" s="20">
+        <v>15</v>
+      </c>
+      <c r="E87" s="20"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="6">
-        <v>10</v>
+      <c r="H87" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2739,14 +2749,16 @@
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
-      <c r="D88" s="19">
-        <v>10</v>
-      </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="7"/>
+      <c r="D88" s="20">
+        <v>70</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="8">
+        <v>55</v>
+      </c>
       <c r="G88" s="7"/>
-      <c r="H88" s="6">
-        <v>10</v>
+      <c r="H88" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2755,14 +2767,14 @@
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
-      <c r="D89" s="19">
-        <v>10</v>
-      </c>
-      <c r="E89" s="19"/>
+      <c r="D89" s="20">
+        <v>15</v>
+      </c>
+      <c r="E89" s="20"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="6">
-        <v>10</v>
+      <c r="H89" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2771,14 +2783,16 @@
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
-      <c r="D90" s="19">
-        <v>10</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="7"/>
+      <c r="D90" s="20">
+        <v>35</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="8">
+        <v>20</v>
+      </c>
       <c r="G90" s="7"/>
-      <c r="H90" s="6">
-        <v>10</v>
+      <c r="H90" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2787,14 +2801,16 @@
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
-      <c r="D91" s="19">
-        <v>10</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="7"/>
+      <c r="D91" s="20">
+        <v>105</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="8">
+        <v>90</v>
+      </c>
       <c r="G91" s="7"/>
-      <c r="H91" s="6">
-        <v>10</v>
+      <c r="H91" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2803,14 +2819,16 @@
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
-      <c r="D92" s="19">
-        <v>10</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="7"/>
+      <c r="D92" s="20">
+        <v>25</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
       <c r="G92" s="7"/>
-      <c r="H92" s="6">
-        <v>10</v>
+      <c r="H92" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2819,14 +2837,16 @@
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
-      <c r="D93" s="19">
-        <v>10</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="7"/>
+      <c r="D93" s="20">
+        <v>55</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="8">
+        <v>40</v>
+      </c>
       <c r="G93" s="7"/>
-      <c r="H93" s="6">
-        <v>10</v>
+      <c r="H93" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2835,14 +2855,14 @@
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
-      <c r="D94" s="19">
-        <v>10</v>
-      </c>
-      <c r="E94" s="19"/>
+      <c r="D94" s="20">
+        <v>15</v>
+      </c>
+      <c r="E94" s="20"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="6">
-        <v>10</v>
+      <c r="H94" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2851,14 +2871,16 @@
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
-      <c r="D95" s="19">
-        <v>10</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="7"/>
+      <c r="D95" s="20">
+        <v>19</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="8">
+        <v>5</v>
+      </c>
       <c r="G95" s="7"/>
-      <c r="H95" s="6">
-        <v>10</v>
+      <c r="H95" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2867,14 +2889,14 @@
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
-      <c r="D96" s="19">
-        <v>10</v>
-      </c>
-      <c r="E96" s="19"/>
+      <c r="D96" s="20">
+        <v>14</v>
+      </c>
+      <c r="E96" s="20"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="6">
-        <v>10</v>
+      <c r="H96" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2883,32 +2905,30 @@
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
-      <c r="D97" s="19">
-        <v>16</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="6">
-        <v>6</v>
-      </c>
+      <c r="D97" s="20">
+        <v>14</v>
+      </c>
+      <c r="E97" s="20"/>
+      <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
-      <c r="D98" s="19">
-        <v>10</v>
-      </c>
-      <c r="E98" s="19"/>
+      <c r="D98" s="20">
+        <v>13</v>
+      </c>
+      <c r="E98" s="20"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="6">
-        <v>10</v>
+      <c r="H98" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2917,14 +2937,14 @@
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
-      <c r="D99" s="19">
-        <v>10</v>
-      </c>
-      <c r="E99" s="19"/>
+      <c r="D99" s="20">
+        <v>13</v>
+      </c>
+      <c r="E99" s="20"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="6">
-        <v>10</v>
+      <c r="H99" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2933,16 +2953,14 @@
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
-      <c r="D100" s="19">
-        <v>110</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="6">
-        <v>100</v>
-      </c>
+      <c r="D100" s="20">
+        <v>11</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="6">
-        <v>10</v>
+      <c r="H100" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2951,13 +2969,15 @@
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
-      <c r="D101" s="19">
-        <v>10</v>
-      </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="7"/>
+      <c r="D101" s="20">
+        <v>14</v>
+      </c>
+      <c r="E101" s="20"/>
+      <c r="F101" s="8">
+        <v>4</v>
+      </c>
       <c r="G101" s="7"/>
-      <c r="H101" s="6">
+      <c r="H101" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2967,13 +2987,13 @@
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
-      <c r="D102" s="19">
-        <v>10</v>
-      </c>
-      <c r="E102" s="19"/>
+      <c r="D102" s="20">
+        <v>10</v>
+      </c>
+      <c r="E102" s="20"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="6">
+      <c r="H102" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2983,13 +3003,13 @@
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
-      <c r="D103" s="19">
-        <v>10</v>
-      </c>
-      <c r="E103" s="19"/>
+      <c r="D103" s="20">
+        <v>10</v>
+      </c>
+      <c r="E103" s="20"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="6">
+      <c r="H103" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2999,13 +3019,13 @@
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
-      <c r="D104" s="19">
-        <v>10</v>
-      </c>
-      <c r="E104" s="19"/>
+      <c r="D104" s="20">
+        <v>10</v>
+      </c>
+      <c r="E104" s="20"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="6">
+      <c r="H104" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3015,15 +3035,13 @@
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
-      <c r="D105" s="19">
-        <v>210</v>
-      </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="6">
-        <v>200</v>
-      </c>
+      <c r="D105" s="20">
+        <v>10</v>
+      </c>
+      <c r="E105" s="20"/>
+      <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="6">
+      <c r="H105" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3033,13 +3051,13 @@
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
-      <c r="D106" s="19">
-        <v>10</v>
-      </c>
-      <c r="E106" s="19"/>
+      <c r="D106" s="20">
+        <v>10</v>
+      </c>
+      <c r="E106" s="20"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="6">
+      <c r="H106" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3049,13 +3067,13 @@
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
-      <c r="D107" s="19">
-        <v>10</v>
-      </c>
-      <c r="E107" s="19"/>
+      <c r="D107" s="20">
+        <v>10</v>
+      </c>
+      <c r="E107" s="20"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="6">
+      <c r="H107" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3065,15 +3083,13 @@
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
-      <c r="D108" s="19">
-        <v>75</v>
-      </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="6">
-        <v>65</v>
-      </c>
+      <c r="D108" s="20">
+        <v>10</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="6">
+      <c r="H108" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3083,13 +3099,13 @@
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
-      <c r="D109" s="19">
-        <v>10</v>
-      </c>
-      <c r="E109" s="19"/>
+      <c r="D109" s="20">
+        <v>10</v>
+      </c>
+      <c r="E109" s="20"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="6">
+      <c r="H109" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3099,15 +3115,15 @@
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
-      <c r="D110" s="19">
-        <v>28</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="6">
-        <v>18</v>
+      <c r="D110" s="20">
+        <v>16</v>
+      </c>
+      <c r="E110" s="20"/>
+      <c r="F110" s="8">
+        <v>6</v>
       </c>
       <c r="G110" s="7"/>
-      <c r="H110" s="6">
+      <c r="H110" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3117,13 +3133,13 @@
       </c>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
-      <c r="D111" s="19">
-        <v>10</v>
-      </c>
-      <c r="E111" s="19"/>
+      <c r="D111" s="20">
+        <v>10</v>
+      </c>
+      <c r="E111" s="20"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="6">
+      <c r="H111" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3133,15 +3149,13 @@
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
-      <c r="D112" s="19">
-        <v>14</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="6">
-        <v>4</v>
-      </c>
+      <c r="D112" s="20">
+        <v>10</v>
+      </c>
+      <c r="E112" s="20"/>
+      <c r="F112" s="7"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="6">
+      <c r="H112" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3151,13 +3165,13 @@
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
-      <c r="D113" s="19">
-        <v>10</v>
-      </c>
-      <c r="E113" s="19"/>
+      <c r="D113" s="20">
+        <v>10</v>
+      </c>
+      <c r="E113" s="20"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
-      <c r="H113" s="6">
+      <c r="H113" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3167,13 +3181,15 @@
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
-      <c r="D114" s="19">
-        <v>10</v>
-      </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="7"/>
+      <c r="D114" s="20">
+        <v>75</v>
+      </c>
+      <c r="E114" s="20"/>
+      <c r="F114" s="8">
+        <v>65</v>
+      </c>
       <c r="G114" s="7"/>
-      <c r="H114" s="6">
+      <c r="H114" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3183,13 +3199,13 @@
       </c>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
-      <c r="D115" s="19">
-        <v>10</v>
-      </c>
-      <c r="E115" s="19"/>
+      <c r="D115" s="20">
+        <v>10</v>
+      </c>
+      <c r="E115" s="20"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="6">
+      <c r="H115" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3199,14 +3215,14 @@
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
-      <c r="D116" s="19">
-        <v>8</v>
-      </c>
-      <c r="E116" s="19"/>
+      <c r="D116" s="20">
+        <v>10</v>
+      </c>
+      <c r="E116" s="20"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="6">
-        <v>8</v>
+      <c r="H116" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3215,14 +3231,14 @@
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
-      <c r="D117" s="19">
-        <v>8</v>
-      </c>
-      <c r="E117" s="19"/>
+      <c r="D117" s="20">
+        <v>10</v>
+      </c>
+      <c r="E117" s="20"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="6">
-        <v>8</v>
+      <c r="H117" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3231,14 +3247,16 @@
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
-      <c r="D118" s="19">
-        <v>8</v>
-      </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="7"/>
+      <c r="D118" s="20">
+        <v>110</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="8">
+        <v>100</v>
+      </c>
       <c r="G118" s="7"/>
-      <c r="H118" s="6">
-        <v>8</v>
+      <c r="H118" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3247,14 +3265,14 @@
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
-      <c r="D119" s="19">
-        <v>7</v>
-      </c>
-      <c r="E119" s="19"/>
+      <c r="D119" s="20">
+        <v>10</v>
+      </c>
+      <c r="E119" s="20"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="6">
-        <v>7</v>
+      <c r="H119" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3263,14 +3281,14 @@
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
-      <c r="D120" s="19">
-        <v>7</v>
-      </c>
-      <c r="E120" s="19"/>
+      <c r="D120" s="20">
+        <v>10</v>
+      </c>
+      <c r="E120" s="20"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="6">
-        <v>7</v>
+      <c r="H120" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
-      <c r="D121" s="19">
-        <v>7</v>
-      </c>
-      <c r="E121" s="19"/>
+      <c r="D121" s="20">
+        <v>10</v>
+      </c>
+      <c r="E121" s="20"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
-      <c r="H121" s="6">
-        <v>7</v>
+      <c r="H121" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3295,14 +3313,14 @@
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
-      <c r="D122" s="19">
-        <v>7</v>
-      </c>
-      <c r="E122" s="19"/>
+      <c r="D122" s="20">
+        <v>10</v>
+      </c>
+      <c r="E122" s="20"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="6">
-        <v>7</v>
+      <c r="H122" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3311,14 +3329,14 @@
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
-      <c r="D123" s="19">
-        <v>7</v>
-      </c>
-      <c r="E123" s="19"/>
+      <c r="D123" s="20">
+        <v>10</v>
+      </c>
+      <c r="E123" s="20"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="6">
-        <v>7</v>
+      <c r="H123" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3327,16 +3345,14 @@
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
-      <c r="D124" s="19">
-        <v>11</v>
-      </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="6">
-        <v>4</v>
-      </c>
+      <c r="D124" s="20">
+        <v>10</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="7"/>
       <c r="G124" s="7"/>
-      <c r="H124" s="6">
-        <v>7</v>
+      <c r="H124" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3345,14 +3361,14 @@
       </c>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
-      <c r="D125" s="19">
-        <v>7</v>
-      </c>
-      <c r="E125" s="19"/>
+      <c r="D125" s="20">
+        <v>10</v>
+      </c>
+      <c r="E125" s="20"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="6">
-        <v>7</v>
+      <c r="H125" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3361,14 +3377,14 @@
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
-      <c r="D126" s="19">
-        <v>6</v>
-      </c>
-      <c r="E126" s="19"/>
+      <c r="D126" s="20">
+        <v>10</v>
+      </c>
+      <c r="E126" s="20"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
-      <c r="H126" s="6">
-        <v>6</v>
+      <c r="H126" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3377,14 +3393,14 @@
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
-      <c r="D127" s="19">
-        <v>6</v>
-      </c>
-      <c r="E127" s="19"/>
+      <c r="D127" s="20">
+        <v>10</v>
+      </c>
+      <c r="E127" s="20"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="6">
-        <v>6</v>
+      <c r="H127" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3393,14 +3409,14 @@
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
-      <c r="D128" s="19">
-        <v>6</v>
-      </c>
-      <c r="E128" s="19"/>
+      <c r="D128" s="20">
+        <v>10</v>
+      </c>
+      <c r="E128" s="20"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="6">
-        <v>6</v>
+      <c r="H128" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3409,14 +3425,16 @@
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
-      <c r="D129" s="19">
-        <v>6</v>
-      </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="7"/>
+      <c r="D129" s="20">
+        <v>28</v>
+      </c>
+      <c r="E129" s="20"/>
+      <c r="F129" s="8">
+        <v>18</v>
+      </c>
       <c r="G129" s="7"/>
-      <c r="H129" s="6">
-        <v>6</v>
+      <c r="H129" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3425,14 +3443,14 @@
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
-      <c r="D130" s="19">
-        <v>6</v>
-      </c>
-      <c r="E130" s="19"/>
+      <c r="D130" s="20">
+        <v>10</v>
+      </c>
+      <c r="E130" s="20"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="6">
-        <v>6</v>
+      <c r="H130" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
-      <c r="D131" s="19">
-        <v>6</v>
-      </c>
-      <c r="E131" s="19"/>
+      <c r="D131" s="20">
+        <v>10</v>
+      </c>
+      <c r="E131" s="20"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="6">
-        <v>6</v>
+      <c r="H131" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3457,14 +3475,14 @@
       </c>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
-      <c r="D132" s="19">
-        <v>6</v>
-      </c>
-      <c r="E132" s="19"/>
+      <c r="D132" s="20">
+        <v>10</v>
+      </c>
+      <c r="E132" s="20"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="6">
-        <v>6</v>
+      <c r="H132" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3473,14 +3491,14 @@
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
-      <c r="D133" s="19">
-        <v>5</v>
-      </c>
-      <c r="E133" s="19"/>
+      <c r="D133" s="20">
+        <v>10</v>
+      </c>
+      <c r="E133" s="20"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="6">
-        <v>5</v>
+      <c r="H133" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
-      <c r="D134" s="19">
-        <v>5</v>
-      </c>
-      <c r="E134" s="19"/>
+      <c r="D134" s="20">
+        <v>10</v>
+      </c>
+      <c r="E134" s="20"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="6">
-        <v>5</v>
+      <c r="H134" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3505,14 +3523,14 @@
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
-      <c r="D135" s="19">
-        <v>5</v>
-      </c>
-      <c r="E135" s="19"/>
+      <c r="D135" s="20">
+        <v>9</v>
+      </c>
+      <c r="E135" s="20"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
-      <c r="H135" s="6">
-        <v>5</v>
+      <c r="H135" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3521,16 +3539,16 @@
       </c>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
-      <c r="D136" s="19">
-        <v>45</v>
-      </c>
-      <c r="E136" s="19"/>
-      <c r="F136" s="6">
-        <v>40</v>
+      <c r="D136" s="20">
+        <v>209</v>
+      </c>
+      <c r="E136" s="20"/>
+      <c r="F136" s="8">
+        <v>200</v>
       </c>
       <c r="G136" s="7"/>
-      <c r="H136" s="6">
-        <v>5</v>
+      <c r="H136" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3539,14 +3557,14 @@
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
-      <c r="D137" s="19">
-        <v>5</v>
-      </c>
-      <c r="E137" s="19"/>
+      <c r="D137" s="20">
+        <v>9</v>
+      </c>
+      <c r="E137" s="20"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="6">
-        <v>5</v>
+      <c r="H137" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3555,16 +3573,16 @@
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
-      <c r="D138" s="19">
-        <v>6</v>
-      </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="6">
-        <v>1</v>
+      <c r="D138" s="20">
+        <v>49</v>
+      </c>
+      <c r="E138" s="20"/>
+      <c r="F138" s="8">
+        <v>40</v>
       </c>
       <c r="G138" s="7"/>
-      <c r="H138" s="6">
-        <v>5</v>
+      <c r="H138" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
-      <c r="D139" s="19">
-        <v>5</v>
-      </c>
-      <c r="E139" s="19"/>
+      <c r="D139" s="20">
+        <v>8</v>
+      </c>
+      <c r="E139" s="20"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="6">
-        <v>5</v>
+      <c r="H139" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3589,14 +3607,14 @@
       </c>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
-      <c r="D140" s="19">
-        <v>5</v>
-      </c>
-      <c r="E140" s="19"/>
+      <c r="D140" s="20">
+        <v>8</v>
+      </c>
+      <c r="E140" s="20"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="6">
-        <v>5</v>
+      <c r="H140" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3605,14 +3623,14 @@
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
-      <c r="D141" s="19">
-        <v>5</v>
-      </c>
-      <c r="E141" s="19"/>
+      <c r="D141" s="20">
+        <v>8</v>
+      </c>
+      <c r="E141" s="20"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="6">
-        <v>5</v>
+      <c r="H141" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
-      <c r="D142" s="19">
-        <v>5</v>
-      </c>
-      <c r="E142" s="19"/>
+      <c r="D142" s="20">
+        <v>7</v>
+      </c>
+      <c r="E142" s="20"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="6">
-        <v>5</v>
+      <c r="H142" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3637,14 +3655,14 @@
       </c>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
-      <c r="D143" s="19">
-        <v>5</v>
-      </c>
-      <c r="E143" s="19"/>
+      <c r="D143" s="20">
+        <v>7</v>
+      </c>
+      <c r="E143" s="20"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="6">
-        <v>5</v>
+      <c r="H143" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3653,14 +3671,14 @@
       </c>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
-      <c r="D144" s="19">
-        <v>5</v>
-      </c>
-      <c r="E144" s="19"/>
+      <c r="D144" s="20">
+        <v>7</v>
+      </c>
+      <c r="E144" s="20"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="6">
-        <v>5</v>
+      <c r="H144" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
-      <c r="D145" s="19">
-        <v>5</v>
-      </c>
-      <c r="E145" s="19"/>
+      <c r="D145" s="20">
+        <v>7</v>
+      </c>
+      <c r="E145" s="20"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="6">
-        <v>5</v>
+      <c r="H145" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3685,14 +3703,14 @@
       </c>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
-      <c r="D146" s="19">
-        <v>5</v>
-      </c>
-      <c r="E146" s="19"/>
+      <c r="D146" s="20">
+        <v>7</v>
+      </c>
+      <c r="E146" s="20"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="6">
-        <v>5</v>
+      <c r="H146" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3701,14 +3719,16 @@
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
-      <c r="D147" s="19">
-        <v>5</v>
-      </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="7"/>
+      <c r="D147" s="20">
+        <v>11</v>
+      </c>
+      <c r="E147" s="20"/>
+      <c r="F147" s="8">
+        <v>4</v>
+      </c>
       <c r="G147" s="7"/>
-      <c r="H147" s="6">
-        <v>5</v>
+      <c r="H147" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3717,14 +3737,14 @@
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
-      <c r="D148" s="19">
-        <v>5</v>
-      </c>
-      <c r="E148" s="19"/>
+      <c r="D148" s="20">
+        <v>6</v>
+      </c>
+      <c r="E148" s="20"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="6">
-        <v>5</v>
+      <c r="H148" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3733,14 +3753,16 @@
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="19">
-        <v>5</v>
-      </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="7"/>
+      <c r="D149" s="20">
+        <v>26</v>
+      </c>
+      <c r="E149" s="20"/>
+      <c r="F149" s="8">
+        <v>20</v>
+      </c>
       <c r="G149" s="7"/>
-      <c r="H149" s="6">
-        <v>5</v>
+      <c r="H149" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3749,14 +3771,14 @@
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
-      <c r="D150" s="19">
-        <v>5</v>
-      </c>
-      <c r="E150" s="19"/>
+      <c r="D150" s="20">
+        <v>6</v>
+      </c>
+      <c r="E150" s="20"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="6">
-        <v>5</v>
+      <c r="H150" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3765,14 +3787,14 @@
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
-      <c r="D151" s="19">
-        <v>5</v>
-      </c>
-      <c r="E151" s="19"/>
+      <c r="D151" s="20">
+        <v>6</v>
+      </c>
+      <c r="E151" s="20"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="6">
-        <v>5</v>
+      <c r="H151" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3781,14 +3803,14 @@
       </c>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
-      <c r="D152" s="19">
-        <v>5</v>
-      </c>
-      <c r="E152" s="19"/>
+      <c r="D152" s="20">
+        <v>6</v>
+      </c>
+      <c r="E152" s="20"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
-      <c r="H152" s="6">
-        <v>5</v>
+      <c r="H152" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3797,14 +3819,14 @@
       </c>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
-      <c r="D153" s="19">
-        <v>5</v>
-      </c>
-      <c r="E153" s="19"/>
+      <c r="D153" s="20">
+        <v>6</v>
+      </c>
+      <c r="E153" s="20"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-      <c r="H153" s="6">
-        <v>5</v>
+      <c r="H153" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3813,14 +3835,14 @@
       </c>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
-      <c r="D154" s="19">
-        <v>5</v>
-      </c>
-      <c r="E154" s="19"/>
+      <c r="D154" s="20">
+        <v>6</v>
+      </c>
+      <c r="E154" s="20"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-      <c r="H154" s="6">
-        <v>5</v>
+      <c r="H154" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3829,14 +3851,14 @@
       </c>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
-      <c r="D155" s="19">
-        <v>5</v>
-      </c>
-      <c r="E155" s="19"/>
+      <c r="D155" s="20">
+        <v>6</v>
+      </c>
+      <c r="E155" s="20"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="6">
-        <v>5</v>
+      <c r="H155" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3845,13 +3867,13 @@
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
-      <c r="D156" s="19">
-        <v>5</v>
-      </c>
-      <c r="E156" s="19"/>
+      <c r="D156" s="20">
+        <v>5</v>
+      </c>
+      <c r="E156" s="20"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="6">
+      <c r="H156" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3861,13 +3883,13 @@
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
-      <c r="D157" s="19">
-        <v>5</v>
-      </c>
-      <c r="E157" s="19"/>
+      <c r="D157" s="20">
+        <v>5</v>
+      </c>
+      <c r="E157" s="20"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="6">
+      <c r="H157" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3877,13 +3899,13 @@
       </c>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
-      <c r="D158" s="19">
-        <v>5</v>
-      </c>
-      <c r="E158" s="19"/>
+      <c r="D158" s="20">
+        <v>5</v>
+      </c>
+      <c r="E158" s="20"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="6">
+      <c r="H158" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3893,13 +3915,13 @@
       </c>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
-      <c r="D159" s="19">
-        <v>5</v>
-      </c>
-      <c r="E159" s="19"/>
+      <c r="D159" s="20">
+        <v>5</v>
+      </c>
+      <c r="E159" s="20"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="6">
+      <c r="H159" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3909,13 +3931,13 @@
       </c>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
-      <c r="D160" s="19">
-        <v>5</v>
-      </c>
-      <c r="E160" s="19"/>
+      <c r="D160" s="20">
+        <v>5</v>
+      </c>
+      <c r="E160" s="20"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="6">
+      <c r="H160" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3925,32 +3947,32 @@
       </c>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
-      <c r="D161" s="19">
-        <v>34</v>
-      </c>
-      <c r="E161" s="19"/>
-      <c r="F161" s="6">
-        <v>30</v>
+      <c r="D161" s="20">
+        <v>45</v>
+      </c>
+      <c r="E161" s="20"/>
+      <c r="F161" s="8">
+        <v>40</v>
       </c>
       <c r="G161" s="7"/>
-      <c r="H161" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>165</v>
       </c>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
-      <c r="D162" s="19">
-        <v>4</v>
-      </c>
-      <c r="E162" s="19"/>
+      <c r="D162" s="20">
+        <v>5</v>
+      </c>
+      <c r="E162" s="20"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="6">
-        <v>4</v>
+      <c r="H162" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3959,16 +3981,14 @@
       </c>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
-      <c r="D163" s="19">
-        <v>14</v>
-      </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="6">
-        <v>10</v>
-      </c>
+      <c r="D163" s="20">
+        <v>5</v>
+      </c>
+      <c r="E163" s="20"/>
+      <c r="F163" s="7"/>
       <c r="G163" s="7"/>
-      <c r="H163" s="6">
-        <v>4</v>
+      <c r="H163" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3977,14 +3997,14 @@
       </c>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
-      <c r="D164" s="19">
-        <v>4</v>
-      </c>
-      <c r="E164" s="19"/>
+      <c r="D164" s="20">
+        <v>5</v>
+      </c>
+      <c r="E164" s="20"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="6">
-        <v>4</v>
+      <c r="H164" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3993,14 +4013,16 @@
       </c>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
-      <c r="D165" s="19">
-        <v>4</v>
-      </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="7"/>
+      <c r="D165" s="20">
+        <v>205</v>
+      </c>
+      <c r="E165" s="20"/>
+      <c r="F165" s="8">
+        <v>200</v>
+      </c>
       <c r="G165" s="7"/>
-      <c r="H165" s="6">
-        <v>4</v>
+      <c r="H165" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4009,14 +4031,14 @@
       </c>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
-      <c r="D166" s="19">
-        <v>4</v>
-      </c>
-      <c r="E166" s="19"/>
+      <c r="D166" s="20">
+        <v>5</v>
+      </c>
+      <c r="E166" s="20"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
-      <c r="H166" s="6">
-        <v>4</v>
+      <c r="H166" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4025,14 +4047,14 @@
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
-      <c r="D167" s="19">
-        <v>4</v>
-      </c>
-      <c r="E167" s="19"/>
+      <c r="D167" s="20">
+        <v>5</v>
+      </c>
+      <c r="E167" s="20"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="6">
-        <v>4</v>
+      <c r="H167" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4041,16 +4063,14 @@
       </c>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
-      <c r="D168" s="19">
-        <v>9</v>
-      </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="6">
-        <v>5</v>
-      </c>
+      <c r="D168" s="20">
+        <v>5</v>
+      </c>
+      <c r="E168" s="20"/>
+      <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="6">
-        <v>4</v>
+      <c r="H168" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4059,14 +4079,14 @@
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
-      <c r="D169" s="19">
-        <v>4</v>
-      </c>
-      <c r="E169" s="19"/>
+      <c r="D169" s="20">
+        <v>5</v>
+      </c>
+      <c r="E169" s="20"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="6">
-        <v>4</v>
+      <c r="H169" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4075,14 +4095,14 @@
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
-      <c r="D170" s="19">
-        <v>4</v>
-      </c>
-      <c r="E170" s="19"/>
+      <c r="D170" s="20">
+        <v>5</v>
+      </c>
+      <c r="E170" s="20"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="6">
-        <v>4</v>
+      <c r="H170" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4091,14 +4111,14 @@
       </c>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
-      <c r="D171" s="19">
-        <v>4</v>
-      </c>
-      <c r="E171" s="19"/>
+      <c r="D171" s="20">
+        <v>5</v>
+      </c>
+      <c r="E171" s="20"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
-      <c r="H171" s="6">
-        <v>4</v>
+      <c r="H171" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4107,14 +4127,14 @@
       </c>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
-      <c r="D172" s="19">
-        <v>3</v>
-      </c>
-      <c r="E172" s="19"/>
+      <c r="D172" s="20">
+        <v>5</v>
+      </c>
+      <c r="E172" s="20"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="6">
-        <v>3</v>
+      <c r="H172" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4123,14 +4143,14 @@
       </c>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
-      <c r="D173" s="19">
-        <v>3</v>
-      </c>
-      <c r="E173" s="19"/>
+      <c r="D173" s="20">
+        <v>5</v>
+      </c>
+      <c r="E173" s="20"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
-      <c r="H173" s="6">
-        <v>3</v>
+      <c r="H173" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4139,16 +4159,14 @@
       </c>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
-      <c r="D174" s="19">
-        <v>32</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="6">
-        <v>29</v>
-      </c>
+      <c r="D174" s="20">
+        <v>5</v>
+      </c>
+      <c r="E174" s="20"/>
+      <c r="F174" s="7"/>
       <c r="G174" s="7"/>
-      <c r="H174" s="6">
-        <v>3</v>
+      <c r="H174" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4157,14 +4175,14 @@
       </c>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
-      <c r="D175" s="19">
-        <v>3</v>
-      </c>
-      <c r="E175" s="19"/>
+      <c r="D175" s="20">
+        <v>5</v>
+      </c>
+      <c r="E175" s="20"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
-      <c r="H175" s="6">
-        <v>3</v>
+      <c r="H175" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
-      <c r="D176" s="19">
-        <v>3</v>
-      </c>
-      <c r="E176" s="19"/>
+      <c r="D176" s="20">
+        <v>5</v>
+      </c>
+      <c r="E176" s="20"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
-      <c r="H176" s="6">
-        <v>3</v>
+      <c r="H176" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4189,14 +4207,14 @@
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
-      <c r="D177" s="19">
-        <v>3</v>
-      </c>
-      <c r="E177" s="19"/>
+      <c r="D177" s="20">
+        <v>5</v>
+      </c>
+      <c r="E177" s="20"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
-      <c r="H177" s="6">
-        <v>3</v>
+      <c r="H177" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4205,14 +4223,14 @@
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
-      <c r="D178" s="19">
-        <v>3</v>
-      </c>
-      <c r="E178" s="19"/>
+      <c r="D178" s="20">
+        <v>5</v>
+      </c>
+      <c r="E178" s="20"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="6">
-        <v>3</v>
+      <c r="H178" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
-      <c r="D179" s="19">
-        <v>3</v>
-      </c>
-      <c r="E179" s="19"/>
+      <c r="D179" s="20">
+        <v>5</v>
+      </c>
+      <c r="E179" s="20"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="6">
-        <v>3</v>
+      <c r="H179" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4237,14 +4255,14 @@
       </c>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
-      <c r="D180" s="19">
-        <v>3</v>
-      </c>
-      <c r="E180" s="19"/>
+      <c r="D180" s="20">
+        <v>5</v>
+      </c>
+      <c r="E180" s="20"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
-      <c r="H180" s="6">
-        <v>3</v>
+      <c r="H180" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4253,14 +4271,14 @@
       </c>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
-      <c r="D181" s="19">
-        <v>3</v>
-      </c>
-      <c r="E181" s="19"/>
+      <c r="D181" s="20">
+        <v>5</v>
+      </c>
+      <c r="E181" s="20"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
-      <c r="H181" s="6">
-        <v>3</v>
+      <c r="H181" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
-      <c r="D182" s="19">
-        <v>3</v>
-      </c>
-      <c r="E182" s="19"/>
+      <c r="D182" s="20">
+        <v>5</v>
+      </c>
+      <c r="E182" s="20"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
-      <c r="H182" s="6">
-        <v>3</v>
+      <c r="H182" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4285,14 +4303,14 @@
       </c>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
-      <c r="D183" s="19">
-        <v>3</v>
-      </c>
-      <c r="E183" s="19"/>
+      <c r="D183" s="20">
+        <v>5</v>
+      </c>
+      <c r="E183" s="20"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
-      <c r="H183" s="6">
-        <v>3</v>
+      <c r="H183" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4301,14 +4319,14 @@
       </c>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
-      <c r="D184" s="19">
-        <v>3</v>
-      </c>
-      <c r="E184" s="19"/>
+      <c r="D184" s="20">
+        <v>5</v>
+      </c>
+      <c r="E184" s="20"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="6">
-        <v>3</v>
+      <c r="H184" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
-      <c r="D185" s="19">
-        <v>3</v>
-      </c>
-      <c r="E185" s="19"/>
+      <c r="D185" s="20">
+        <v>5</v>
+      </c>
+      <c r="E185" s="20"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="6">
-        <v>3</v>
+      <c r="H185" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4333,46 +4351,46 @@
       </c>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
-      <c r="D186" s="19">
-        <v>3</v>
-      </c>
-      <c r="E186" s="19"/>
+      <c r="D186" s="20">
+        <v>5</v>
+      </c>
+      <c r="E186" s="20"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H186" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
         <v>190</v>
       </c>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
-      <c r="D187" s="19">
-        <v>3</v>
-      </c>
-      <c r="E187" s="19"/>
+      <c r="D187" s="20">
+        <v>5</v>
+      </c>
+      <c r="E187" s="20"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
-      <c r="H187" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H187" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
         <v>191</v>
       </c>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
-      <c r="D188" s="19">
-        <v>3</v>
-      </c>
-      <c r="E188" s="19"/>
+      <c r="D188" s="20">
+        <v>5</v>
+      </c>
+      <c r="E188" s="20"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
-      <c r="H188" s="6">
-        <v>3</v>
+      <c r="H188" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4381,14 +4399,14 @@
       </c>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
-      <c r="D189" s="19">
-        <v>3</v>
-      </c>
-      <c r="E189" s="19"/>
+      <c r="D189" s="20">
+        <v>5</v>
+      </c>
+      <c r="E189" s="20"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="6">
-        <v>3</v>
+      <c r="H189" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4397,14 +4415,14 @@
       </c>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
-      <c r="D190" s="19">
-        <v>2</v>
-      </c>
-      <c r="E190" s="19"/>
+      <c r="D190" s="20">
+        <v>4</v>
+      </c>
+      <c r="E190" s="20"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
-      <c r="H190" s="6">
-        <v>2</v>
+      <c r="H190" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
-      <c r="D191" s="19">
-        <v>2</v>
-      </c>
-      <c r="E191" s="19"/>
+      <c r="D191" s="20">
+        <v>4</v>
+      </c>
+      <c r="E191" s="20"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
-      <c r="H191" s="6">
-        <v>2</v>
+      <c r="H191" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4429,14 +4447,14 @@
       </c>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
-      <c r="D192" s="19">
-        <v>2</v>
-      </c>
-      <c r="E192" s="19"/>
+      <c r="D192" s="20">
+        <v>4</v>
+      </c>
+      <c r="E192" s="20"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
-      <c r="H192" s="6">
-        <v>2</v>
+      <c r="H192" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4445,14 +4463,14 @@
       </c>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
-      <c r="D193" s="19">
-        <v>2</v>
-      </c>
-      <c r="E193" s="19"/>
+      <c r="D193" s="20">
+        <v>4</v>
+      </c>
+      <c r="E193" s="20"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="6">
-        <v>2</v>
+      <c r="H193" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
-      <c r="D194" s="19">
-        <v>2</v>
-      </c>
-      <c r="E194" s="19"/>
+      <c r="D194" s="20">
+        <v>4</v>
+      </c>
+      <c r="E194" s="20"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="6">
-        <v>2</v>
+      <c r="H194" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4477,14 +4495,14 @@
       </c>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
-      <c r="D195" s="19">
-        <v>2</v>
-      </c>
-      <c r="E195" s="19"/>
+      <c r="D195" s="20">
+        <v>4</v>
+      </c>
+      <c r="E195" s="20"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
-      <c r="H195" s="6">
-        <v>2</v>
+      <c r="H195" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4493,14 +4511,14 @@
       </c>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
-      <c r="D196" s="19">
-        <v>2</v>
-      </c>
-      <c r="E196" s="19"/>
+      <c r="D196" s="20">
+        <v>4</v>
+      </c>
+      <c r="E196" s="20"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
-      <c r="H196" s="6">
-        <v>2</v>
+      <c r="H196" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4509,30 +4527,32 @@
       </c>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
-      <c r="D197" s="19">
-        <v>2</v>
-      </c>
-      <c r="E197" s="19"/>
-      <c r="F197" s="7"/>
+      <c r="D197" s="20">
+        <v>14</v>
+      </c>
+      <c r="E197" s="20"/>
+      <c r="F197" s="8">
+        <v>10</v>
+      </c>
       <c r="G197" s="7"/>
-      <c r="H197" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H197" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
-      <c r="D198" s="19">
-        <v>2</v>
-      </c>
-      <c r="E198" s="19"/>
+      <c r="D198" s="20">
+        <v>4</v>
+      </c>
+      <c r="E198" s="20"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
-      <c r="H198" s="6">
-        <v>2</v>
+      <c r="H198" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4541,16 +4561,14 @@
       </c>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
-      <c r="D199" s="19">
-        <v>17</v>
-      </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="6">
-        <v>15</v>
-      </c>
+      <c r="D199" s="20">
+        <v>4</v>
+      </c>
+      <c r="E199" s="20"/>
+      <c r="F199" s="7"/>
       <c r="G199" s="7"/>
-      <c r="H199" s="6">
-        <v>2</v>
+      <c r="H199" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4559,14 +4577,14 @@
       </c>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
-      <c r="D200" s="19">
-        <v>2</v>
-      </c>
-      <c r="E200" s="19"/>
+      <c r="D200" s="20">
+        <v>4</v>
+      </c>
+      <c r="E200" s="20"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
-      <c r="H200" s="6">
-        <v>2</v>
+      <c r="H200" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
-      <c r="D201" s="19">
-        <v>2</v>
-      </c>
-      <c r="E201" s="19"/>
+      <c r="D201" s="20">
+        <v>4</v>
+      </c>
+      <c r="E201" s="20"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
-      <c r="H201" s="6">
-        <v>2</v>
+      <c r="H201" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4591,16 +4609,16 @@
       </c>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
-      <c r="D202" s="19">
-        <v>8</v>
-      </c>
-      <c r="E202" s="19"/>
-      <c r="F202" s="6">
-        <v>6</v>
+      <c r="D202" s="20">
+        <v>9</v>
+      </c>
+      <c r="E202" s="20"/>
+      <c r="F202" s="8">
+        <v>5</v>
       </c>
       <c r="G202" s="7"/>
-      <c r="H202" s="6">
-        <v>2</v>
+      <c r="H202" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4609,14 +4627,14 @@
       </c>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
-      <c r="D203" s="19">
-        <v>2</v>
-      </c>
-      <c r="E203" s="19"/>
+      <c r="D203" s="20">
+        <v>3</v>
+      </c>
+      <c r="E203" s="20"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
-      <c r="H203" s="6">
-        <v>2</v>
+      <c r="H203" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4625,14 +4643,14 @@
       </c>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
-      <c r="D204" s="19">
-        <v>2</v>
-      </c>
-      <c r="E204" s="19"/>
+      <c r="D204" s="20">
+        <v>3</v>
+      </c>
+      <c r="E204" s="20"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
-      <c r="H204" s="6">
-        <v>2</v>
+      <c r="H204" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4641,14 +4659,16 @@
       </c>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
-      <c r="D205" s="19">
-        <v>2</v>
-      </c>
-      <c r="E205" s="19"/>
-      <c r="F205" s="7"/>
+      <c r="D205" s="20">
+        <v>32</v>
+      </c>
+      <c r="E205" s="20"/>
+      <c r="F205" s="8">
+        <v>29</v>
+      </c>
       <c r="G205" s="7"/>
-      <c r="H205" s="6">
-        <v>2</v>
+      <c r="H205" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4657,16 +4677,14 @@
       </c>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
-      <c r="D206" s="19">
-        <v>12</v>
-      </c>
-      <c r="E206" s="19"/>
-      <c r="F206" s="6">
-        <v>10</v>
-      </c>
+      <c r="D206" s="20">
+        <v>3</v>
+      </c>
+      <c r="E206" s="20"/>
+      <c r="F206" s="7"/>
       <c r="G206" s="7"/>
-      <c r="H206" s="6">
-        <v>2</v>
+      <c r="H206" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4675,14 +4693,14 @@
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
-      <c r="D207" s="19">
-        <v>2</v>
-      </c>
-      <c r="E207" s="19"/>
+      <c r="D207" s="20">
+        <v>3</v>
+      </c>
+      <c r="E207" s="20"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
-      <c r="H207" s="6">
-        <v>2</v>
+      <c r="H207" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4691,14 +4709,14 @@
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
-      <c r="D208" s="19">
-        <v>2</v>
-      </c>
-      <c r="E208" s="19"/>
+      <c r="D208" s="20">
+        <v>3</v>
+      </c>
+      <c r="E208" s="20"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
-      <c r="H208" s="6">
-        <v>2</v>
+      <c r="H208" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4707,16 +4725,14 @@
       </c>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
-      <c r="D209" s="19">
-        <v>6</v>
-      </c>
-      <c r="E209" s="19"/>
-      <c r="F209" s="6">
-        <v>4</v>
-      </c>
+      <c r="D209" s="20">
+        <v>3</v>
+      </c>
+      <c r="E209" s="20"/>
+      <c r="F209" s="7"/>
       <c r="G209" s="7"/>
-      <c r="H209" s="6">
-        <v>2</v>
+      <c r="H209" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4725,14 +4741,14 @@
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
-      <c r="D210" s="19">
-        <v>2</v>
-      </c>
-      <c r="E210" s="19"/>
+      <c r="D210" s="20">
+        <v>3</v>
+      </c>
+      <c r="E210" s="20"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
-      <c r="H210" s="6">
-        <v>2</v>
+      <c r="H210" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4741,13 +4757,13 @@
       </c>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
-      <c r="D211" s="19">
+      <c r="D211" s="20">
         <v>2</v>
       </c>
-      <c r="E211" s="19"/>
+      <c r="E211" s="20"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
-      <c r="H211" s="6">
+      <c r="H211" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4757,15 +4773,13 @@
       </c>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
-      <c r="D212" s="19">
-        <v>6</v>
-      </c>
-      <c r="E212" s="19"/>
-      <c r="F212" s="6">
-        <v>4</v>
-      </c>
+      <c r="D212" s="20">
+        <v>2</v>
+      </c>
+      <c r="E212" s="20"/>
+      <c r="F212" s="7"/>
       <c r="G212" s="7"/>
-      <c r="H212" s="6">
+      <c r="H212" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4775,13 +4789,15 @@
       </c>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
-      <c r="D213" s="19">
-        <v>2</v>
-      </c>
-      <c r="E213" s="19"/>
-      <c r="F213" s="7"/>
+      <c r="D213" s="20">
+        <v>17</v>
+      </c>
+      <c r="E213" s="20"/>
+      <c r="F213" s="8">
+        <v>15</v>
+      </c>
       <c r="G213" s="7"/>
-      <c r="H213" s="6">
+      <c r="H213" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4791,13 +4807,13 @@
       </c>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
-      <c r="D214" s="19">
+      <c r="D214" s="20">
         <v>2</v>
       </c>
-      <c r="E214" s="19"/>
+      <c r="E214" s="20"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
-      <c r="H214" s="6">
+      <c r="H214" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4807,13 +4823,15 @@
       </c>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
-      <c r="D215" s="19">
-        <v>2</v>
-      </c>
-      <c r="E215" s="19"/>
-      <c r="F215" s="7"/>
+      <c r="D215" s="20">
+        <v>6</v>
+      </c>
+      <c r="E215" s="20"/>
+      <c r="F215" s="8">
+        <v>4</v>
+      </c>
       <c r="G215" s="7"/>
-      <c r="H215" s="6">
+      <c r="H215" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4823,15 +4841,13 @@
       </c>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
-      <c r="D216" s="19">
-        <v>47</v>
-      </c>
-      <c r="E216" s="19"/>
-      <c r="F216" s="6">
-        <v>45</v>
-      </c>
+      <c r="D216" s="20">
+        <v>2</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="7"/>
       <c r="G216" s="7"/>
-      <c r="H216" s="6">
+      <c r="H216" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4841,13 +4857,13 @@
       </c>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
-      <c r="D217" s="19">
+      <c r="D217" s="20">
         <v>2</v>
       </c>
-      <c r="E217" s="19"/>
+      <c r="E217" s="20"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
-      <c r="H217" s="6">
+      <c r="H217" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4857,13 +4873,13 @@
       </c>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
-      <c r="D218" s="19">
+      <c r="D218" s="20">
         <v>2</v>
       </c>
-      <c r="E218" s="19"/>
+      <c r="E218" s="20"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
-      <c r="H218" s="6">
+      <c r="H218" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4873,13 +4889,13 @@
       </c>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
-      <c r="D219" s="19">
+      <c r="D219" s="20">
         <v>2</v>
       </c>
-      <c r="E219" s="19"/>
+      <c r="E219" s="20"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
-      <c r="H219" s="6">
+      <c r="H219" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4889,15 +4905,13 @@
       </c>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
-      <c r="D220" s="19">
-        <v>33</v>
-      </c>
-      <c r="E220" s="19"/>
-      <c r="F220" s="6">
-        <v>31</v>
-      </c>
+      <c r="D220" s="20">
+        <v>2</v>
+      </c>
+      <c r="E220" s="20"/>
+      <c r="F220" s="7"/>
       <c r="G220" s="7"/>
-      <c r="H220" s="6">
+      <c r="H220" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4907,16 +4921,14 @@
       </c>
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
-      <c r="D221" s="19">
-        <v>201</v>
-      </c>
-      <c r="E221" s="19"/>
-      <c r="F221" s="6">
-        <v>200</v>
-      </c>
+      <c r="D221" s="20">
+        <v>2</v>
+      </c>
+      <c r="E221" s="20"/>
+      <c r="F221" s="7"/>
       <c r="G221" s="7"/>
-      <c r="H221" s="6">
-        <v>1</v>
+      <c r="H221" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4925,14 +4937,14 @@
       </c>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
-      <c r="D222" s="19">
-        <v>1</v>
-      </c>
-      <c r="E222" s="19"/>
+      <c r="D222" s="20">
+        <v>2</v>
+      </c>
+      <c r="E222" s="20"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
-      <c r="H222" s="6">
-        <v>1</v>
+      <c r="H222" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4941,14 +4953,14 @@
       </c>
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
-      <c r="D223" s="19">
-        <v>1</v>
-      </c>
-      <c r="E223" s="19"/>
+      <c r="D223" s="20">
+        <v>2</v>
+      </c>
+      <c r="E223" s="20"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
-      <c r="H223" s="6">
-        <v>1</v>
+      <c r="H223" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4957,14 +4969,14 @@
       </c>
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
-      <c r="D224" s="19">
-        <v>1</v>
-      </c>
-      <c r="E224" s="19"/>
+      <c r="D224" s="20">
+        <v>2</v>
+      </c>
+      <c r="E224" s="20"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
-      <c r="H224" s="6">
-        <v>1</v>
+      <c r="H224" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4973,16 +4985,14 @@
       </c>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
-      <c r="D225" s="19">
-        <v>36</v>
-      </c>
-      <c r="E225" s="19"/>
-      <c r="F225" s="6">
-        <v>35</v>
-      </c>
+      <c r="D225" s="20">
+        <v>2</v>
+      </c>
+      <c r="E225" s="20"/>
+      <c r="F225" s="7"/>
       <c r="G225" s="7"/>
-      <c r="H225" s="6">
-        <v>1</v>
+      <c r="H225" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4991,14 +5001,14 @@
       </c>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
-      <c r="D226" s="19">
-        <v>1</v>
-      </c>
-      <c r="E226" s="19"/>
+      <c r="D226" s="20">
+        <v>2</v>
+      </c>
+      <c r="E226" s="20"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
-      <c r="H226" s="6">
-        <v>1</v>
+      <c r="H226" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5007,14 +5017,16 @@
       </c>
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
-      <c r="D227" s="19">
-        <v>1</v>
-      </c>
-      <c r="E227" s="19"/>
-      <c r="F227" s="7"/>
+      <c r="D227" s="20">
+        <v>33</v>
+      </c>
+      <c r="E227" s="20"/>
+      <c r="F227" s="8">
+        <v>31</v>
+      </c>
       <c r="G227" s="7"/>
-      <c r="H227" s="6">
-        <v>1</v>
+      <c r="H227" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5023,16 +5035,16 @@
       </c>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
-      <c r="D228" s="19">
-        <v>26</v>
-      </c>
-      <c r="E228" s="19"/>
-      <c r="F228" s="6">
-        <v>25</v>
+      <c r="D228" s="20">
+        <v>6</v>
+      </c>
+      <c r="E228" s="20"/>
+      <c r="F228" s="8">
+        <v>4</v>
       </c>
       <c r="G228" s="7"/>
-      <c r="H228" s="6">
-        <v>1</v>
+      <c r="H228" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5041,14 +5053,14 @@
       </c>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
-      <c r="D229" s="19">
-        <v>1</v>
-      </c>
-      <c r="E229" s="19"/>
+      <c r="D229" s="20">
+        <v>2</v>
+      </c>
+      <c r="E229" s="20"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
-      <c r="H229" s="6">
-        <v>1</v>
+      <c r="H229" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5057,14 +5069,14 @@
       </c>
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
-      <c r="D230" s="19">
-        <v>1</v>
-      </c>
-      <c r="E230" s="19"/>
+      <c r="D230" s="20">
+        <v>2</v>
+      </c>
+      <c r="E230" s="20"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
-      <c r="H230" s="6">
-        <v>1</v>
+      <c r="H230" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5073,14 +5085,14 @@
       </c>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
-      <c r="D231" s="19">
-        <v>1</v>
-      </c>
-      <c r="E231" s="19"/>
+      <c r="D231" s="20">
+        <v>2</v>
+      </c>
+      <c r="E231" s="20"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
-      <c r="H231" s="6">
-        <v>1</v>
+      <c r="H231" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5089,14 +5101,14 @@
       </c>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
-      <c r="D232" s="19">
-        <v>1</v>
-      </c>
-      <c r="E232" s="19"/>
+      <c r="D232" s="20">
+        <v>2</v>
+      </c>
+      <c r="E232" s="20"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
-      <c r="H232" s="6">
-        <v>1</v>
+      <c r="H232" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5105,14 +5117,14 @@
       </c>
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
-      <c r="D233" s="19">
-        <v>1</v>
-      </c>
-      <c r="E233" s="19"/>
+      <c r="D233" s="20">
+        <v>2</v>
+      </c>
+      <c r="E233" s="20"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
-      <c r="H233" s="6">
-        <v>1</v>
+      <c r="H233" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5121,14 +5133,16 @@
       </c>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
-      <c r="D234" s="19">
-        <v>1</v>
-      </c>
-      <c r="E234" s="19"/>
-      <c r="F234" s="7"/>
+      <c r="D234" s="20">
+        <v>12</v>
+      </c>
+      <c r="E234" s="20"/>
+      <c r="F234" s="8">
+        <v>10</v>
+      </c>
       <c r="G234" s="7"/>
-      <c r="H234" s="6">
-        <v>1</v>
+      <c r="H234" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5137,16 +5151,16 @@
       </c>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
-      <c r="D235" s="19">
-        <v>29</v>
-      </c>
-      <c r="E235" s="19"/>
-      <c r="F235" s="6">
-        <v>28</v>
+      <c r="D235" s="20">
+        <v>47</v>
+      </c>
+      <c r="E235" s="20"/>
+      <c r="F235" s="8">
+        <v>45</v>
       </c>
       <c r="G235" s="7"/>
-      <c r="H235" s="6">
-        <v>1</v>
+      <c r="H235" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5155,13 +5169,15 @@
       </c>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
-      <c r="D236" s="19">
-        <v>1</v>
-      </c>
-      <c r="E236" s="19"/>
-      <c r="F236" s="7"/>
+      <c r="D236" s="20">
+        <v>46</v>
+      </c>
+      <c r="E236" s="20"/>
+      <c r="F236" s="8">
+        <v>45</v>
+      </c>
       <c r="G236" s="7"/>
-      <c r="H236" s="6">
+      <c r="H236" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5171,15 +5187,13 @@
       </c>
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
-      <c r="D237" s="19">
-        <v>46</v>
-      </c>
-      <c r="E237" s="19"/>
-      <c r="F237" s="6">
-        <v>45</v>
-      </c>
+      <c r="D237" s="20">
+        <v>1</v>
+      </c>
+      <c r="E237" s="20"/>
+      <c r="F237" s="7"/>
       <c r="G237" s="7"/>
-      <c r="H237" s="6">
+      <c r="H237" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5189,15 +5203,13 @@
       </c>
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
-      <c r="D238" s="19">
-        <v>31</v>
-      </c>
-      <c r="E238" s="19"/>
-      <c r="F238" s="6">
-        <v>30</v>
-      </c>
+      <c r="D238" s="20">
+        <v>1</v>
+      </c>
+      <c r="E238" s="20"/>
+      <c r="F238" s="7"/>
       <c r="G238" s="7"/>
-      <c r="H238" s="6">
+      <c r="H238" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5207,15 +5219,15 @@
       </c>
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
-      <c r="D239" s="19">
-        <v>11</v>
-      </c>
-      <c r="E239" s="19"/>
-      <c r="F239" s="6">
-        <v>10</v>
+      <c r="D239" s="20">
+        <v>501</v>
+      </c>
+      <c r="E239" s="20"/>
+      <c r="F239" s="8">
+        <v>500</v>
       </c>
       <c r="G239" s="7"/>
-      <c r="H239" s="6">
+      <c r="H239" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5225,13 +5237,13 @@
       </c>
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
-      <c r="D240" s="19">
+      <c r="D240" s="20">
         <v>1</v>
       </c>
-      <c r="E240" s="19"/>
+      <c r="E240" s="20"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
-      <c r="H240" s="6">
+      <c r="H240" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5241,13 +5253,15 @@
       </c>
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
-      <c r="D241" s="19">
-        <v>1</v>
-      </c>
-      <c r="E241" s="19"/>
-      <c r="F241" s="7"/>
+      <c r="D241" s="20">
+        <v>11</v>
+      </c>
+      <c r="E241" s="20"/>
+      <c r="F241" s="8">
+        <v>10</v>
+      </c>
       <c r="G241" s="7"/>
-      <c r="H241" s="6">
+      <c r="H241" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5257,13 +5271,13 @@
       </c>
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
-      <c r="D242" s="19">
+      <c r="D242" s="20">
         <v>1</v>
       </c>
-      <c r="E242" s="19"/>
+      <c r="E242" s="20"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
-      <c r="H242" s="6">
+      <c r="H242" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5273,13 +5287,15 @@
       </c>
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
-      <c r="D243" s="19">
-        <v>1</v>
-      </c>
-      <c r="E243" s="19"/>
-      <c r="F243" s="7"/>
+      <c r="D243" s="20">
+        <v>36</v>
+      </c>
+      <c r="E243" s="20"/>
+      <c r="F243" s="8">
+        <v>35</v>
+      </c>
       <c r="G243" s="7"/>
-      <c r="H243" s="6">
+      <c r="H243" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5289,13 +5305,13 @@
       </c>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
-      <c r="D244" s="19">
+      <c r="D244" s="20">
         <v>1</v>
       </c>
-      <c r="E244" s="19"/>
+      <c r="E244" s="20"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
-      <c r="H244" s="6">
+      <c r="H244" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5305,15 +5321,15 @@
       </c>
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
-      <c r="D245" s="19">
-        <v>6</v>
-      </c>
-      <c r="E245" s="19"/>
-      <c r="F245" s="6">
-        <v>5</v>
+      <c r="D245" s="20">
+        <v>31</v>
+      </c>
+      <c r="E245" s="20"/>
+      <c r="F245" s="8">
+        <v>30</v>
       </c>
       <c r="G245" s="7"/>
-      <c r="H245" s="6">
+      <c r="H245" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5323,13 +5339,13 @@
       </c>
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
-      <c r="D246" s="19">
+      <c r="D246" s="20">
         <v>1</v>
       </c>
-      <c r="E246" s="19"/>
+      <c r="E246" s="20"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
-      <c r="H246" s="6">
+      <c r="H246" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5339,13 +5355,15 @@
       </c>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
-      <c r="D247" s="19">
-        <v>1</v>
-      </c>
-      <c r="E247" s="19"/>
-      <c r="F247" s="7"/>
+      <c r="D247" s="20">
+        <v>5</v>
+      </c>
+      <c r="E247" s="20"/>
+      <c r="F247" s="8">
+        <v>4</v>
+      </c>
       <c r="G247" s="7"/>
-      <c r="H247" s="6">
+      <c r="H247" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5355,13 +5373,13 @@
       </c>
       <c r="B248" s="18"/>
       <c r="C248" s="18"/>
-      <c r="D248" s="19">
+      <c r="D248" s="20">
         <v>1</v>
       </c>
-      <c r="E248" s="19"/>
+      <c r="E248" s="20"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
-      <c r="H248" s="6">
+      <c r="H248" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5371,15 +5389,15 @@
       </c>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
-      <c r="D249" s="19">
-        <v>5</v>
-      </c>
-      <c r="E249" s="19"/>
-      <c r="F249" s="6">
-        <v>4</v>
+      <c r="D249" s="20">
+        <v>11</v>
+      </c>
+      <c r="E249" s="20"/>
+      <c r="F249" s="8">
+        <v>10</v>
       </c>
       <c r="G249" s="7"/>
-      <c r="H249" s="6">
+      <c r="H249" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5389,13 +5407,13 @@
       </c>
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
-      <c r="D250" s="19">
+      <c r="D250" s="20">
         <v>1</v>
       </c>
-      <c r="E250" s="19"/>
+      <c r="E250" s="20"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
-      <c r="H250" s="6">
+      <c r="H250" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5405,13 +5423,15 @@
       </c>
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
-      <c r="D251" s="19">
-        <v>1</v>
-      </c>
-      <c r="E251" s="19"/>
-      <c r="F251" s="7"/>
+      <c r="D251" s="20">
+        <v>29</v>
+      </c>
+      <c r="E251" s="20"/>
+      <c r="F251" s="8">
+        <v>28</v>
+      </c>
       <c r="G251" s="7"/>
-      <c r="H251" s="6">
+      <c r="H251" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5421,13 +5441,15 @@
       </c>
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
-      <c r="D252" s="19">
-        <v>1</v>
-      </c>
-      <c r="E252" s="19"/>
-      <c r="F252" s="7"/>
+      <c r="D252" s="20">
+        <v>6</v>
+      </c>
+      <c r="E252" s="20"/>
+      <c r="F252" s="8">
+        <v>5</v>
+      </c>
       <c r="G252" s="7"/>
-      <c r="H252" s="6">
+      <c r="H252" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5437,13 +5459,13 @@
       </c>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
-      <c r="D253" s="19">
+      <c r="D253" s="20">
         <v>1</v>
       </c>
-      <c r="E253" s="19"/>
+      <c r="E253" s="20"/>
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
-      <c r="H253" s="6">
+      <c r="H253" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5453,13 +5475,13 @@
       </c>
       <c r="B254" s="18"/>
       <c r="C254" s="18"/>
-      <c r="D254" s="19">
+      <c r="D254" s="20">
         <v>1</v>
       </c>
-      <c r="E254" s="19"/>
+      <c r="E254" s="20"/>
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
-      <c r="H254" s="6">
+      <c r="H254" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5469,13 +5491,13 @@
       </c>
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
-      <c r="D255" s="19">
+      <c r="D255" s="20">
         <v>1</v>
       </c>
-      <c r="E255" s="19"/>
+      <c r="E255" s="20"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
-      <c r="H255" s="6">
+      <c r="H255" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5485,32 +5507,30 @@
       </c>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
-      <c r="D256" s="19">
-        <v>21</v>
-      </c>
-      <c r="E256" s="19"/>
-      <c r="F256" s="6">
-        <v>20</v>
-      </c>
+      <c r="D256" s="20">
+        <v>1</v>
+      </c>
+      <c r="E256" s="20"/>
+      <c r="F256" s="7"/>
       <c r="G256" s="7"/>
-      <c r="H256" s="6">
+      <c r="H256" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="16" t="s">
+    <row r="257" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-      <c r="D257" s="21">
-        <v>20</v>
-      </c>
-      <c r="E257" s="21"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="9">
-        <v>20</v>
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="20">
+        <v>1</v>
+      </c>
+      <c r="E257" s="20"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+      <c r="H257" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5519,14 +5539,14 @@
       </c>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
-      <c r="D258" s="19">
-        <v>10</v>
-      </c>
-      <c r="E258" s="19"/>
+      <c r="D258" s="20">
+        <v>1</v>
+      </c>
+      <c r="E258" s="20"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
-      <c r="H258" s="6">
-        <v>10</v>
+      <c r="H258" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5535,42 +5555,102 @@
       </c>
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
-      <c r="D259" s="19">
-        <v>10</v>
-      </c>
-      <c r="E259" s="19"/>
+      <c r="D259" s="20">
+        <v>1</v>
+      </c>
+      <c r="E259" s="20"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
-      <c r="H259" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="15" t="s">
+      <c r="H259" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="20">
+        <v>26</v>
+      </c>
+      <c r="E260" s="20"/>
+      <c r="F260" s="8">
+        <v>25</v>
+      </c>
+      <c r="G260" s="7"/>
+      <c r="H260" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="21">
+        <v>55</v>
+      </c>
+      <c r="E261" s="21"/>
+      <c r="F261" s="9">
+        <v>5</v>
+      </c>
+      <c r="G261" s="5"/>
+      <c r="H261" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="20">
+        <v>55</v>
+      </c>
+      <c r="E262" s="20"/>
+      <c r="F262" s="8">
+        <v>5</v>
+      </c>
+      <c r="G262" s="7"/>
+      <c r="H262" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="15"/>
-      <c r="C260" s="15"/>
-      <c r="D260" s="22">
-        <v>11248</v>
-      </c>
-      <c r="E260" s="22"/>
-      <c r="F260" s="10">
-        <v>7061</v>
-      </c>
-      <c r="G260" s="11"/>
-      <c r="H260" s="10">
-        <v>4187</v>
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="22">
+        <v>15176</v>
+      </c>
+      <c r="E263" s="22"/>
+      <c r="F263" s="10">
+        <v>7975</v>
+      </c>
+      <c r="G263" s="11"/>
+      <c r="H263" s="10">
+        <v>7201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="515">
+  <mergeCells count="521">
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="D263:E263"/>
     <mergeCell ref="A258:C258"/>
     <mergeCell ref="D258:E258"/>
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="D259:E259"/>
     <mergeCell ref="A260:C260"/>
     <mergeCell ref="D260:E260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="D262:E262"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="D253:E253"/>
     <mergeCell ref="A254:C254"/>
